--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang khong phat sinh don hang/CRMF30401_Bao cao khach hang khong phat sinh don hang.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang khong phat sinh don hang/CRMF30401_Bao cao khach hang khong phat sinh don hang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="864" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="864" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -514,7 +514,7 @@
     <author>Le Thi Thu Hien</author>
   </authors>
   <commentList>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -527,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -551,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="1" shapeId="0">
+    <comment ref="D4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -565,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -578,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -591,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -604,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -630,7 +630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -647,7 +647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -660,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="1" shapeId="0">
+    <comment ref="K4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -674,7 +674,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -766,7 +766,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0">
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -801,7 +801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="1" shapeId="0">
+    <comment ref="N4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -817,7 +817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="O4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1589,7 +1589,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="235">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2319,12 +2319,6 @@
 In báo cáo Khách hàng không phát sinh đơn hàng</t>
   </si>
   <si>
-    <t>Menu [Báo cáo] -&gt; MenuItem[Báo cáo Biểu đồ_CRMF3000] 
--&gt; Click vào Link Báo cáo KH mới theo nhân viên 
--&gt;Pop [Báo cáo khách hàng mới theo nhân viên_CRMF3010]
--&gt; In -&gt; Tab[Báo cáo khách hàng không phát sinh đơn hàng]</t>
-  </si>
-  <si>
     <t>CRMR30401</t>
   </si>
   <si>
@@ -2332,9 +2326,6 @@
   </si>
   <si>
     <t>Thực thi @SQL0001 load nội dung báo cáo Khách hàng không phát sinh đơn hàng</t>
-  </si>
-  <si>
-    <t>Nhận tham số từ màn hình CRMF3040 để load báo cáo Khách hàng không phát sinh đơn hàng</t>
   </si>
   <si>
     <t>Click button In</t>
@@ -2367,10 +2358,58 @@
 </t>
   </si>
   <si>
-    <t>Nhận tham số @DivisionID từ màn hình CRMF3040 để mở báo cáo CRMR30401</t>
-  </si>
-  <si>
-    <t>Click button In từ màn hình CRMF3040</t>
+    <t>Menu [Báo cáo] -&gt; Page[Báo cáo Biểu đồ_CRMF3000] 
+-&gt; Click vào Link Báo cáo KH mới theo nhân viên 
+-&gt;Pop [Báo cáo khách hàng mới theo nhân viên_CRMF3010]
+-&gt; In -&gt; Tab[Báo cáo khách hàng không phát sinh đơn hàng]</t>
+  </si>
+  <si>
+    <t>CustomizeIndex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Từ ngày </t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>Control này được truyền từ CRMF3010 nếu IsDate = 1</t>
+  </si>
+  <si>
+    <t>Đến ngày</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>Theo kỳ</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Control này được truyền từ CRMF3010 nếu IsDate = 0</t>
+  </si>
+  <si>
+    <t>Nhận tham số các tham số truyền từ màn hình CRMF3040 vào câu @SQL0001 để load Tab báo cáo Danh sách Khách hàng không phát sinh đơn hàng</t>
+  </si>
+  <si>
+    <t>Tham khảo sheet Code Standar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị danh sách khách hàng không phát sinh đơn hàng </t>
+  </si>
+  <si>
+    <t>Đơn vị</t>
+  </si>
+  <si>
+    <t>DivisionID</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Group by theo DivisionID</t>
   </si>
 </sst>
 </file>
@@ -2989,7 +3028,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3295,65 +3334,68 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3665,14 +3707,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2987251</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>3071792</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3696,8 +3738,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="647700"/>
-          <a:ext cx="9864301" cy="3952875"/>
+          <a:off x="0" y="476250"/>
+          <a:ext cx="9948842" cy="3829050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4508,65 +4550,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="150"/>
-      <c r="B1" s="150"/>
-      <c r="C1" s="152" t="s">
+      <c r="A1" s="151"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="153" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="151" t="s">
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="152" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151" t="s">
+      <c r="H1" s="152"/>
+      <c r="I1" s="152" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="151"/>
+      <c r="J1" s="152"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="151" t="s">
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="152" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="150"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="147" t="s">
+      <c r="A3" s="151"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="148" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="148"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="148"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="149"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="116"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="149"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="149"/>
+      <c r="A13" s="150"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
       <c r="K13" s="117"/>
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
@@ -4577,56 +4619,56 @@
       <c r="R13" s="117"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="145"/>
-      <c r="O14" s="145"/>
-      <c r="P14" s="145"/>
-      <c r="Q14" s="145"/>
-      <c r="R14" s="145"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="146"/>
+      <c r="N14" s="146"/>
+      <c r="O14" s="146"/>
+      <c r="P14" s="146"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="146"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="145"/>
-      <c r="Q15" s="145"/>
-      <c r="R15" s="145"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="146"/>
+      <c r="N15" s="146"/>
+      <c r="O15" s="146"/>
+      <c r="P15" s="146"/>
+      <c r="Q15" s="146"/>
+      <c r="R15" s="146"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="147" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
       <c r="K16" s="118"/>
       <c r="L16" s="118"/>
       <c r="M16" s="118"/>
@@ -4637,384 +4679,384 @@
       <c r="R16" s="118"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="145"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="145"/>
-      <c r="O17" s="145"/>
-      <c r="P17" s="145"/>
-      <c r="Q17" s="145"/>
-      <c r="R17" s="145"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="146"/>
+      <c r="N17" s="146"/>
+      <c r="O17" s="146"/>
+      <c r="P17" s="146"/>
+      <c r="Q17" s="146"/>
+      <c r="R17" s="146"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="145"/>
-      <c r="C18" s="145"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="145"/>
-      <c r="O18" s="145"/>
-      <c r="P18" s="145"/>
-      <c r="Q18" s="145"/>
-      <c r="R18" s="145"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="146"/>
+      <c r="O18" s="146"/>
+      <c r="P18" s="146"/>
+      <c r="Q18" s="146"/>
+      <c r="R18" s="146"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="162"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="162"/>
-      <c r="K19" s="162"/>
-      <c r="L19" s="162"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="162"/>
-      <c r="O19" s="162"/>
-      <c r="P19" s="162"/>
-      <c r="Q19" s="162"/>
-      <c r="R19" s="162"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="163"/>
+      <c r="O19" s="163"/>
+      <c r="P19" s="163"/>
+      <c r="Q19" s="163"/>
+      <c r="R19" s="163"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="145"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="145"/>
-      <c r="K20" s="145"/>
-      <c r="L20" s="145"/>
-      <c r="M20" s="145"/>
-      <c r="N20" s="145"/>
-      <c r="O20" s="145"/>
-      <c r="P20" s="145"/>
-      <c r="Q20" s="145"/>
-      <c r="R20" s="145"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="146"/>
+      <c r="N20" s="146"/>
+      <c r="O20" s="146"/>
+      <c r="P20" s="146"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="146"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="145"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="145"/>
-      <c r="M21" s="145"/>
-      <c r="N21" s="145"/>
-      <c r="O21" s="145"/>
-      <c r="P21" s="145"/>
-      <c r="Q21" s="145"/>
-      <c r="R21" s="145"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="146"/>
+      <c r="N21" s="146"/>
+      <c r="O21" s="146"/>
+      <c r="P21" s="146"/>
+      <c r="Q21" s="146"/>
+      <c r="R21" s="146"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="161"/>
-      <c r="P22" s="161"/>
-      <c r="Q22" s="161"/>
-      <c r="R22" s="161"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="162"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="162"/>
+      <c r="Q22" s="162"/>
+      <c r="R22" s="162"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="161"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="161"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="161"/>
-      <c r="N23" s="161"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="161"/>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="161"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="162"/>
+      <c r="K23" s="162"/>
+      <c r="L23" s="162"/>
+      <c r="M23" s="162"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="162"/>
+      <c r="R23" s="162"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="163"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="163"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="163"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="163"/>
-      <c r="P26" s="163"/>
-      <c r="Q26" s="163"/>
-      <c r="R26" s="163"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="164"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="164"/>
+      <c r="O26" s="164"/>
+      <c r="P26" s="164"/>
+      <c r="Q26" s="164"/>
+      <c r="R26" s="164"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="165"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="165"/>
-      <c r="L28" s="165"/>
-      <c r="M28" s="165"/>
-      <c r="N28" s="165"/>
-      <c r="O28" s="165"/>
-      <c r="P28" s="165"/>
-      <c r="Q28" s="165"/>
-      <c r="R28" s="165"/>
-      <c r="S28" s="164"/>
-      <c r="T28" s="164"/>
-      <c r="U28" s="164"/>
-      <c r="V28" s="164"/>
-      <c r="W28" s="164"/>
-      <c r="X28" s="164"/>
-      <c r="Y28" s="164"/>
-      <c r="Z28" s="164"/>
-      <c r="AA28" s="164"/>
-      <c r="AB28" s="164"/>
-      <c r="AC28" s="164"/>
-      <c r="AD28" s="164"/>
-      <c r="AE28" s="164"/>
-      <c r="AF28" s="164"/>
-      <c r="AG28" s="164"/>
-      <c r="AH28" s="164"/>
-      <c r="AI28" s="164"/>
-      <c r="AJ28" s="164"/>
-      <c r="AK28" s="164"/>
-      <c r="AL28" s="164"/>
-      <c r="AM28" s="164"/>
-      <c r="AN28" s="164"/>
-      <c r="AO28" s="164"/>
-      <c r="AP28" s="164"/>
-      <c r="AQ28" s="164"/>
-      <c r="AR28" s="164"/>
-      <c r="AS28" s="164"/>
-      <c r="AT28" s="164"/>
-      <c r="AU28" s="164"/>
-      <c r="AV28" s="164"/>
-      <c r="AW28" s="164"/>
-      <c r="AX28" s="164"/>
-      <c r="AY28" s="164"/>
-      <c r="AZ28" s="164"/>
-      <c r="BA28" s="164"/>
-      <c r="BB28" s="164"/>
-      <c r="BC28" s="164"/>
-      <c r="BD28" s="164"/>
-      <c r="BE28" s="164"/>
-      <c r="BF28" s="164"/>
-      <c r="BG28" s="164"/>
-      <c r="BH28" s="164"/>
-      <c r="BI28" s="164"/>
-      <c r="BJ28" s="164"/>
-      <c r="BK28" s="164"/>
-      <c r="BL28" s="164"/>
-      <c r="BM28" s="164"/>
-      <c r="BN28" s="164"/>
-      <c r="BO28" s="164"/>
-      <c r="BP28" s="164"/>
-      <c r="BQ28" s="164"/>
-      <c r="BR28" s="164"/>
-      <c r="BS28" s="164"/>
-      <c r="BT28" s="164"/>
-      <c r="BU28" s="164"/>
-      <c r="BV28" s="164"/>
-      <c r="BW28" s="164"/>
-      <c r="BX28" s="164"/>
-      <c r="BY28" s="164"/>
-      <c r="BZ28" s="164"/>
-      <c r="CA28" s="164"/>
-      <c r="CB28" s="164"/>
-      <c r="CC28" s="164"/>
-      <c r="CD28" s="164"/>
-      <c r="CE28" s="164"/>
-      <c r="CF28" s="164"/>
-      <c r="CG28" s="164"/>
-      <c r="CH28" s="164"/>
-      <c r="CI28" s="164"/>
-      <c r="CJ28" s="164"/>
-      <c r="CK28" s="164"/>
-      <c r="CL28" s="164"/>
-      <c r="CM28" s="164"/>
-      <c r="CN28" s="164"/>
-      <c r="CO28" s="164"/>
-      <c r="CP28" s="164"/>
-      <c r="CQ28" s="164"/>
-      <c r="CR28" s="164"/>
-      <c r="CS28" s="164"/>
-      <c r="CT28" s="164"/>
-      <c r="CU28" s="164"/>
-      <c r="CV28" s="164"/>
-      <c r="CW28" s="164"/>
-      <c r="CX28" s="164"/>
-      <c r="CY28" s="164"/>
-      <c r="CZ28" s="164"/>
-      <c r="DA28" s="164"/>
-      <c r="DB28" s="164"/>
-      <c r="DC28" s="164"/>
-      <c r="DD28" s="164"/>
-      <c r="DE28" s="164"/>
-      <c r="DF28" s="164"/>
-      <c r="DG28" s="164"/>
-      <c r="DH28" s="164"/>
-      <c r="DI28" s="164"/>
-      <c r="DJ28" s="164"/>
-      <c r="DK28" s="164"/>
-      <c r="DL28" s="164"/>
-      <c r="DM28" s="164"/>
-      <c r="DN28" s="164"/>
-      <c r="DO28" s="164"/>
-      <c r="DP28" s="164"/>
-      <c r="DQ28" s="164"/>
-      <c r="DR28" s="164"/>
-      <c r="DS28" s="164"/>
-      <c r="DT28" s="164"/>
-      <c r="DU28" s="164"/>
-      <c r="DV28" s="164"/>
-      <c r="DW28" s="164"/>
-      <c r="DX28" s="164"/>
-      <c r="DY28" s="164"/>
-      <c r="DZ28" s="164"/>
-      <c r="EA28" s="164"/>
-      <c r="EB28" s="164"/>
-      <c r="EC28" s="164"/>
-      <c r="ED28" s="164"/>
-      <c r="EE28" s="164"/>
-      <c r="EF28" s="164"/>
-      <c r="EG28" s="164"/>
-      <c r="EH28" s="164"/>
-      <c r="EI28" s="164"/>
-      <c r="EJ28" s="164"/>
-      <c r="EK28" s="164"/>
-      <c r="EL28" s="164"/>
-      <c r="EM28" s="164"/>
-      <c r="EN28" s="164"/>
-      <c r="EO28" s="164"/>
-      <c r="EP28" s="164"/>
-      <c r="EQ28" s="164"/>
-      <c r="ER28" s="164"/>
-      <c r="ES28" s="164"/>
-      <c r="ET28" s="164"/>
-      <c r="EU28" s="164"/>
-      <c r="EV28" s="164"/>
-      <c r="EW28" s="164"/>
-      <c r="EX28" s="164"/>
-      <c r="EY28" s="164"/>
-      <c r="EZ28" s="164"/>
-      <c r="FA28" s="164"/>
-      <c r="FB28" s="164"/>
-      <c r="FC28" s="164"/>
-      <c r="FD28" s="164"/>
-      <c r="FE28" s="164"/>
-      <c r="FF28" s="164"/>
-      <c r="FG28" s="164"/>
-      <c r="FH28" s="164"/>
-      <c r="FI28" s="164"/>
-      <c r="FJ28" s="164"/>
-      <c r="FK28" s="164"/>
-      <c r="FL28" s="164"/>
-      <c r="FM28" s="164"/>
-      <c r="FN28" s="164"/>
-      <c r="FO28" s="164"/>
-      <c r="FP28" s="164"/>
-      <c r="FQ28" s="164"/>
-      <c r="FR28" s="164"/>
-      <c r="FS28" s="164"/>
-      <c r="FT28" s="164"/>
-      <c r="FU28" s="164"/>
-      <c r="FV28" s="164"/>
-      <c r="FW28" s="164"/>
-      <c r="FX28" s="164"/>
-      <c r="FY28" s="164"/>
-      <c r="FZ28" s="164"/>
-      <c r="GA28" s="164"/>
-      <c r="GB28" s="164"/>
-      <c r="GC28" s="164"/>
-      <c r="GD28" s="164"/>
-      <c r="GE28" s="164"/>
-      <c r="GF28" s="164"/>
-      <c r="GG28" s="164"/>
-      <c r="GH28" s="164"/>
-      <c r="GI28" s="164"/>
-      <c r="GJ28" s="164"/>
-      <c r="GK28" s="164"/>
-      <c r="GL28" s="164"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
+      <c r="K28" s="166"/>
+      <c r="L28" s="166"/>
+      <c r="M28" s="166"/>
+      <c r="N28" s="166"/>
+      <c r="O28" s="166"/>
+      <c r="P28" s="166"/>
+      <c r="Q28" s="166"/>
+      <c r="R28" s="166"/>
+      <c r="S28" s="165"/>
+      <c r="T28" s="165"/>
+      <c r="U28" s="165"/>
+      <c r="V28" s="165"/>
+      <c r="W28" s="165"/>
+      <c r="X28" s="165"/>
+      <c r="Y28" s="165"/>
+      <c r="Z28" s="165"/>
+      <c r="AA28" s="165"/>
+      <c r="AB28" s="165"/>
+      <c r="AC28" s="165"/>
+      <c r="AD28" s="165"/>
+      <c r="AE28" s="165"/>
+      <c r="AF28" s="165"/>
+      <c r="AG28" s="165"/>
+      <c r="AH28" s="165"/>
+      <c r="AI28" s="165"/>
+      <c r="AJ28" s="165"/>
+      <c r="AK28" s="165"/>
+      <c r="AL28" s="165"/>
+      <c r="AM28" s="165"/>
+      <c r="AN28" s="165"/>
+      <c r="AO28" s="165"/>
+      <c r="AP28" s="165"/>
+      <c r="AQ28" s="165"/>
+      <c r="AR28" s="165"/>
+      <c r="AS28" s="165"/>
+      <c r="AT28" s="165"/>
+      <c r="AU28" s="165"/>
+      <c r="AV28" s="165"/>
+      <c r="AW28" s="165"/>
+      <c r="AX28" s="165"/>
+      <c r="AY28" s="165"/>
+      <c r="AZ28" s="165"/>
+      <c r="BA28" s="165"/>
+      <c r="BB28" s="165"/>
+      <c r="BC28" s="165"/>
+      <c r="BD28" s="165"/>
+      <c r="BE28" s="165"/>
+      <c r="BF28" s="165"/>
+      <c r="BG28" s="165"/>
+      <c r="BH28" s="165"/>
+      <c r="BI28" s="165"/>
+      <c r="BJ28" s="165"/>
+      <c r="BK28" s="165"/>
+      <c r="BL28" s="165"/>
+      <c r="BM28" s="165"/>
+      <c r="BN28" s="165"/>
+      <c r="BO28" s="165"/>
+      <c r="BP28" s="165"/>
+      <c r="BQ28" s="165"/>
+      <c r="BR28" s="165"/>
+      <c r="BS28" s="165"/>
+      <c r="BT28" s="165"/>
+      <c r="BU28" s="165"/>
+      <c r="BV28" s="165"/>
+      <c r="BW28" s="165"/>
+      <c r="BX28" s="165"/>
+      <c r="BY28" s="165"/>
+      <c r="BZ28" s="165"/>
+      <c r="CA28" s="165"/>
+      <c r="CB28" s="165"/>
+      <c r="CC28" s="165"/>
+      <c r="CD28" s="165"/>
+      <c r="CE28" s="165"/>
+      <c r="CF28" s="165"/>
+      <c r="CG28" s="165"/>
+      <c r="CH28" s="165"/>
+      <c r="CI28" s="165"/>
+      <c r="CJ28" s="165"/>
+      <c r="CK28" s="165"/>
+      <c r="CL28" s="165"/>
+      <c r="CM28" s="165"/>
+      <c r="CN28" s="165"/>
+      <c r="CO28" s="165"/>
+      <c r="CP28" s="165"/>
+      <c r="CQ28" s="165"/>
+      <c r="CR28" s="165"/>
+      <c r="CS28" s="165"/>
+      <c r="CT28" s="165"/>
+      <c r="CU28" s="165"/>
+      <c r="CV28" s="165"/>
+      <c r="CW28" s="165"/>
+      <c r="CX28" s="165"/>
+      <c r="CY28" s="165"/>
+      <c r="CZ28" s="165"/>
+      <c r="DA28" s="165"/>
+      <c r="DB28" s="165"/>
+      <c r="DC28" s="165"/>
+      <c r="DD28" s="165"/>
+      <c r="DE28" s="165"/>
+      <c r="DF28" s="165"/>
+      <c r="DG28" s="165"/>
+      <c r="DH28" s="165"/>
+      <c r="DI28" s="165"/>
+      <c r="DJ28" s="165"/>
+      <c r="DK28" s="165"/>
+      <c r="DL28" s="165"/>
+      <c r="DM28" s="165"/>
+      <c r="DN28" s="165"/>
+      <c r="DO28" s="165"/>
+      <c r="DP28" s="165"/>
+      <c r="DQ28" s="165"/>
+      <c r="DR28" s="165"/>
+      <c r="DS28" s="165"/>
+      <c r="DT28" s="165"/>
+      <c r="DU28" s="165"/>
+      <c r="DV28" s="165"/>
+      <c r="DW28" s="165"/>
+      <c r="DX28" s="165"/>
+      <c r="DY28" s="165"/>
+      <c r="DZ28" s="165"/>
+      <c r="EA28" s="165"/>
+      <c r="EB28" s="165"/>
+      <c r="EC28" s="165"/>
+      <c r="ED28" s="165"/>
+      <c r="EE28" s="165"/>
+      <c r="EF28" s="165"/>
+      <c r="EG28" s="165"/>
+      <c r="EH28" s="165"/>
+      <c r="EI28" s="165"/>
+      <c r="EJ28" s="165"/>
+      <c r="EK28" s="165"/>
+      <c r="EL28" s="165"/>
+      <c r="EM28" s="165"/>
+      <c r="EN28" s="165"/>
+      <c r="EO28" s="165"/>
+      <c r="EP28" s="165"/>
+      <c r="EQ28" s="165"/>
+      <c r="ER28" s="165"/>
+      <c r="ES28" s="165"/>
+      <c r="ET28" s="165"/>
+      <c r="EU28" s="165"/>
+      <c r="EV28" s="165"/>
+      <c r="EW28" s="165"/>
+      <c r="EX28" s="165"/>
+      <c r="EY28" s="165"/>
+      <c r="EZ28" s="165"/>
+      <c r="FA28" s="165"/>
+      <c r="FB28" s="165"/>
+      <c r="FC28" s="165"/>
+      <c r="FD28" s="165"/>
+      <c r="FE28" s="165"/>
+      <c r="FF28" s="165"/>
+      <c r="FG28" s="165"/>
+      <c r="FH28" s="165"/>
+      <c r="FI28" s="165"/>
+      <c r="FJ28" s="165"/>
+      <c r="FK28" s="165"/>
+      <c r="FL28" s="165"/>
+      <c r="FM28" s="165"/>
+      <c r="FN28" s="165"/>
+      <c r="FO28" s="165"/>
+      <c r="FP28" s="165"/>
+      <c r="FQ28" s="165"/>
+      <c r="FR28" s="165"/>
+      <c r="FS28" s="165"/>
+      <c r="FT28" s="165"/>
+      <c r="FU28" s="165"/>
+      <c r="FV28" s="165"/>
+      <c r="FW28" s="165"/>
+      <c r="FX28" s="165"/>
+      <c r="FY28" s="165"/>
+      <c r="FZ28" s="165"/>
+      <c r="GA28" s="165"/>
+      <c r="GB28" s="165"/>
+      <c r="GC28" s="165"/>
+      <c r="GD28" s="165"/>
+      <c r="GE28" s="165"/>
+      <c r="GF28" s="165"/>
+      <c r="GG28" s="165"/>
+      <c r="GH28" s="165"/>
+      <c r="GI28" s="165"/>
+      <c r="GJ28" s="165"/>
+      <c r="GK28" s="165"/>
+      <c r="GL28" s="165"/>
       <c r="GM28" s="119"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="163"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="163"/>
-      <c r="J29" s="163"/>
-      <c r="K29" s="163"/>
-      <c r="L29" s="163"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="163"/>
-      <c r="O29" s="163"/>
-      <c r="P29" s="163"/>
-      <c r="Q29" s="163"/>
-      <c r="R29" s="163"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="164"/>
+      <c r="M29" s="164"/>
+      <c r="N29" s="164"/>
+      <c r="O29" s="164"/>
+      <c r="P29" s="164"/>
+      <c r="Q29" s="164"/>
+      <c r="R29" s="164"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="166"/>
-      <c r="B30" s="166"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="166"/>
+      <c r="A30" s="167"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="167"/>
       <c r="K30" s="120"/>
       <c r="L30" s="120"/>
       <c r="M30" s="120"/>
@@ -5025,16 +5067,16 @@
       <c r="R30" s="120"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="166"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="166"/>
-      <c r="H31" s="166"/>
-      <c r="I31" s="166"/>
-      <c r="J31" s="166"/>
+      <c r="A31" s="167"/>
+      <c r="B31" s="167"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="167"/>
       <c r="K31" s="120"/>
       <c r="L31" s="120"/>
       <c r="M31" s="120"/>
@@ -5107,14 +5149,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="218" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5307,11 +5349,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="218" t="s">
+      <c r="E27" s="219" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="219"/>
-      <c r="G27" s="220"/>
+      <c r="F27" s="220"/>
+      <c r="G27" s="221"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5635,10 +5677,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="173"/>
+      <c r="B1" s="174"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5649,7 +5691,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5665,8 +5707,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="173"/>
-      <c r="B2" s="173"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="174"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5705,14 +5747,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="174" t="s">
+      <c r="E4" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="174"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
     </row>
     <row r="5" spans="1:10" ht="33" customHeight="1">
       <c r="A5" s="40">
@@ -5727,14 +5769,14 @@
       <c r="D5" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="175" t="s">
+      <c r="E5" s="176" t="s">
         <v>210</v>
       </c>
-      <c r="F5" s="176"/>
-      <c r="G5" s="176"/>
-      <c r="H5" s="176"/>
-      <c r="I5" s="176"/>
-      <c r="J5" s="176"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="89">
@@ -5745,12 +5787,12 @@
       </c>
       <c r="C6" s="77"/>
       <c r="D6" s="64"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="179"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="179"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="180"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="90">
@@ -5761,12 +5803,12 @@
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="169"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="91">
@@ -5777,12 +5819,12 @@
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="172"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="173"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="92">
@@ -5793,12 +5835,12 @@
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="169"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="170"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="93">
@@ -5809,12 +5851,12 @@
       </c>
       <c r="C10" s="78"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="169"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="170"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="94">
@@ -5825,12 +5867,12 @@
       </c>
       <c r="C11" s="78"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
-      <c r="J11" s="169"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="170"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="95">
@@ -5841,12 +5883,12 @@
       </c>
       <c r="C12" s="78"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="168"/>
-      <c r="H12" s="168"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="169"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="170"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="96">
@@ -5857,12 +5899,12 @@
       </c>
       <c r="C13" s="78"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="168"/>
-      <c r="I13" s="168"/>
-      <c r="J13" s="169"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="170"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="97">
@@ -5873,12 +5915,12 @@
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="169"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="170"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5889,12 +5931,12 @@
       </c>
       <c r="C15" s="78"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="89">
@@ -5905,12 +5947,12 @@
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="176"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="90">
@@ -5921,12 +5963,12 @@
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="176"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="91">
@@ -5937,12 +5979,12 @@
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="176"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="92">
@@ -5953,12 +5995,12 @@
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="176"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="177"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="93">
@@ -5969,12 +6011,12 @@
       </c>
       <c r="C20" s="78"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="176"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="94">
@@ -5985,12 +6027,12 @@
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="176"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="176"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="95">
@@ -6001,12 +6043,12 @@
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="176"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="176"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="177"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="96">
@@ -6017,12 +6059,12 @@
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="176"/>
-      <c r="F23" s="176"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="176"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="176"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="177"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="97">
@@ -6033,12 +6075,12 @@
       </c>
       <c r="C24" s="78"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="176"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="177"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -6049,12 +6091,12 @@
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="176"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="176"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="176"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="177"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -6065,12 +6107,12 @@
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="176"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="177"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="89">
@@ -6081,12 +6123,12 @@
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="176"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="176"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="177"/>
+      <c r="J27" s="177"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="90">
@@ -6097,12 +6139,12 @@
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="176"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="177"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="91">
@@ -6113,12 +6155,12 @@
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="176"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="177"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="92">
@@ -6129,12 +6171,12 @@
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="176"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="176"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="177"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="93">
@@ -6145,12 +6187,12 @@
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="176"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="177"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="94">
@@ -6161,12 +6203,12 @@
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="176"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="176"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="177"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="95">
@@ -6177,12 +6219,12 @@
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="176"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="177"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="96">
@@ -6193,12 +6235,12 @@
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="176"/>
-      <c r="G34" s="176"/>
-      <c r="H34" s="176"/>
-      <c r="I34" s="176"/>
-      <c r="J34" s="176"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="177"/>
+      <c r="H34" s="177"/>
+      <c r="I34" s="177"/>
+      <c r="J34" s="177"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="97">
@@ -6209,12 +6251,12 @@
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="176"/>
-      <c r="F35" s="176"/>
-      <c r="G35" s="176"/>
-      <c r="H35" s="176"/>
-      <c r="I35" s="176"/>
-      <c r="J35" s="176"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="177"/>
+      <c r="G35" s="177"/>
+      <c r="H35" s="177"/>
+      <c r="I35" s="177"/>
+      <c r="J35" s="177"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6225,12 +6267,12 @@
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="176"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="176"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="176"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="177"/>
+      <c r="I36" s="177"/>
+      <c r="J36" s="177"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="89">
@@ -6241,12 +6283,12 @@
       </c>
       <c r="C37" s="78"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="176"/>
-      <c r="F37" s="176"/>
-      <c r="G37" s="176"/>
-      <c r="H37" s="176"/>
-      <c r="I37" s="176"/>
-      <c r="J37" s="176"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="177"/>
+      <c r="G37" s="177"/>
+      <c r="H37" s="177"/>
+      <c r="I37" s="177"/>
+      <c r="J37" s="177"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="90">
@@ -6257,12 +6299,12 @@
       </c>
       <c r="C38" s="78"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="176"/>
-      <c r="F38" s="176"/>
-      <c r="G38" s="176"/>
-      <c r="H38" s="176"/>
-      <c r="I38" s="176"/>
-      <c r="J38" s="176"/>
+      <c r="E38" s="177"/>
+      <c r="F38" s="177"/>
+      <c r="G38" s="177"/>
+      <c r="H38" s="177"/>
+      <c r="I38" s="177"/>
+      <c r="J38" s="177"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="91">
@@ -6273,12 +6315,12 @@
       </c>
       <c r="C39" s="78"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="176"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
-      <c r="H39" s="176"/>
-      <c r="I39" s="176"/>
-      <c r="J39" s="176"/>
+      <c r="E39" s="177"/>
+      <c r="F39" s="177"/>
+      <c r="G39" s="177"/>
+      <c r="H39" s="177"/>
+      <c r="I39" s="177"/>
+      <c r="J39" s="177"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="92">
@@ -6289,12 +6331,12 @@
       </c>
       <c r="C40" s="78"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="176"/>
-      <c r="F40" s="176"/>
-      <c r="G40" s="176"/>
-      <c r="H40" s="176"/>
-      <c r="I40" s="176"/>
-      <c r="J40" s="176"/>
+      <c r="E40" s="177"/>
+      <c r="F40" s="177"/>
+      <c r="G40" s="177"/>
+      <c r="H40" s="177"/>
+      <c r="I40" s="177"/>
+      <c r="J40" s="177"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="93">
@@ -6305,12 +6347,12 @@
       </c>
       <c r="C41" s="78"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="176"/>
-      <c r="F41" s="176"/>
-      <c r="G41" s="176"/>
-      <c r="H41" s="176"/>
-      <c r="I41" s="176"/>
-      <c r="J41" s="176"/>
+      <c r="E41" s="177"/>
+      <c r="F41" s="177"/>
+      <c r="G41" s="177"/>
+      <c r="H41" s="177"/>
+      <c r="I41" s="177"/>
+      <c r="J41" s="177"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="94">
@@ -6321,12 +6363,12 @@
       </c>
       <c r="C42" s="78"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="176"/>
-      <c r="F42" s="176"/>
-      <c r="G42" s="176"/>
-      <c r="H42" s="176"/>
-      <c r="I42" s="176"/>
-      <c r="J42" s="176"/>
+      <c r="E42" s="177"/>
+      <c r="F42" s="177"/>
+      <c r="G42" s="177"/>
+      <c r="H42" s="177"/>
+      <c r="I42" s="177"/>
+      <c r="J42" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -6395,7 +6437,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
+      <selection activeCell="I12" sqref="I12:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6413,10 +6455,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="173"/>
+      <c r="B1" s="174"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6446,8 +6488,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="173"/>
-      <c r="B2" s="173"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="174"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6477,20 +6519,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="182"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="182"/>
-      <c r="G4" s="182"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="180" t="s">
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="182"/>
+      <c r="I4" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="181"/>
+      <c r="J4" s="182"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6501,10 +6543,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="189" t="s">
+      <c r="I5" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="J5" s="190"/>
+      <c r="J5" s="191"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6515,8 +6557,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="193"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6527,8 +6569,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="192"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="193"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6539,8 +6581,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="192"/>
+      <c r="I8" s="192"/>
+      <c r="J8" s="193"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6551,8 +6593,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="192"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="193"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6563,8 +6605,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="195"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6575,10 +6617,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="180" t="s">
+      <c r="I11" s="181" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="181"/>
+      <c r="J11" s="182"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6589,10 +6631,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="183" t="s">
-        <v>211</v>
-      </c>
-      <c r="J12" s="184"/>
+      <c r="I12" s="184" t="s">
+        <v>218</v>
+      </c>
+      <c r="J12" s="185"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6603,8 +6645,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="185"/>
-      <c r="J13" s="186"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="187"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6615,8 +6657,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="186"/>
+      <c r="I14" s="186"/>
+      <c r="J14" s="187"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6627,8 +6669,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="186"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="187"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6639,8 +6681,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="186"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="187"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6651,8 +6693,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="186"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="187"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6663,8 +6705,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="186"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="187"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6675,8 +6717,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="185"/>
-      <c r="J19" s="186"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="187"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6687,8 +6729,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="185"/>
-      <c r="J20" s="186"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="187"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6699,8 +6741,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="186"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="187"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6711,8 +6753,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="186"/>
+      <c r="I22" s="186"/>
+      <c r="J22" s="187"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6723,8 +6765,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="186"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="187"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6735,8 +6777,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="185"/>
-      <c r="J24" s="186"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="187"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6747,8 +6789,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="185"/>
-      <c r="J25" s="186"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="187"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6759,8 +6801,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="185"/>
-      <c r="J26" s="186"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="187"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6771,8 +6813,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="185"/>
-      <c r="J27" s="186"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="187"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6783,8 +6825,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="186"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="187"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6795,8 +6837,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="185"/>
-      <c r="J29" s="186"/>
+      <c r="I29" s="186"/>
+      <c r="J29" s="187"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6807,8 +6849,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="186"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="187"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6819,8 +6861,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="185"/>
-      <c r="J31" s="186"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="187"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6831,8 +6873,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="185"/>
-      <c r="J32" s="186"/>
+      <c r="I32" s="186"/>
+      <c r="J32" s="187"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6843,8 +6885,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="185"/>
-      <c r="J33" s="186"/>
+      <c r="I33" s="186"/>
+      <c r="J33" s="187"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6855,8 +6897,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="185"/>
-      <c r="J34" s="186"/>
+      <c r="I34" s="186"/>
+      <c r="J34" s="187"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6867,8 +6909,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="185"/>
-      <c r="J35" s="186"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="187"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6879,8 +6921,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="185"/>
-      <c r="J36" s="186"/>
+      <c r="I36" s="186"/>
+      <c r="J36" s="187"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6891,8 +6933,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="185"/>
-      <c r="J37" s="186"/>
+      <c r="I37" s="186"/>
+      <c r="J37" s="187"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6903,8 +6945,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="185"/>
-      <c r="J38" s="186"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="187"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6915,8 +6957,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="185"/>
-      <c r="J39" s="186"/>
+      <c r="I39" s="186"/>
+      <c r="J39" s="187"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6927,8 +6969,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="185"/>
-      <c r="J40" s="186"/>
+      <c r="I40" s="186"/>
+      <c r="J40" s="187"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6939,8 +6981,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="185"/>
-      <c r="J41" s="186"/>
+      <c r="I41" s="186"/>
+      <c r="J41" s="187"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6951,8 +6993,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="185"/>
-      <c r="J42" s="186"/>
+      <c r="I42" s="186"/>
+      <c r="J42" s="187"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6963,8 +7005,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="187"/>
-      <c r="J43" s="188"/>
+      <c r="I43" s="188"/>
+      <c r="J43" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6992,109 +7034,112 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="N14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="22" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="52" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" style="137" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="23" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="23" customWidth="1"/>
-    <col min="14" max="14" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" style="22" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="22"/>
+    <col min="3" max="3" width="6.85546875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="52" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="136" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="23" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="23" customWidth="1"/>
+    <col min="15" max="15" width="12" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" style="22" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="173" t="s">
+    <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="27" t="str">
+      <c r="G1" s="27" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="204" t="s">
+      <c r="H1" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="205"/>
-      <c r="I1" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="J1" s="196"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="196" t="s">
+        <v>211</v>
+      </c>
       <c r="K1" s="197"/>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="198"/>
+      <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="29" t="str">
+      <c r="N1" s="29" t="str">
         <f>'Update History'!H1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="P1" s="66" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="173"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="30" t="s">
+    <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="174"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="27" t="str">
+      <c r="G2" s="27" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="G2" s="204" t="s">
+      <c r="H2" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="195" t="str">
+      <c r="I2" s="206"/>
+      <c r="J2" s="196" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo KH không phát sinh đơn hàng</v>
       </c>
-      <c r="J2" s="196"/>
       <c r="K2" s="197"/>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="198"/>
+      <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="28">
+      <c r="N2" s="28">
         <f>'Update History'!H2</f>
         <v>42401</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="66">
+      <c r="P2" s="66">
         <v>42418</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="21" customFormat="1" ht="23.25" customHeight="1">
+    <row r="4" spans="1:16" s="21" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>44</v>
       </c>
@@ -7102,1342 +7147,1498 @@
         <v>161</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="H4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="I4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="J4" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="K4" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="L4" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="M4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="N4" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="O4" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="P4" s="24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="34" customFormat="1" ht="14.25" customHeight="1">
+    <row r="5" spans="1:16" s="34" customFormat="1" ht="14.25" customHeight="1">
       <c r="A5" s="33">
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="33">
+        <v>51</v>
+      </c>
+      <c r="D5" s="35">
         <v>1</v>
       </c>
-      <c r="D5" s="129" t="str">
+      <c r="E5" s="128" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo KH không phát sinh đơn hàng</v>
       </c>
-      <c r="E5" s="82" t="str">
+      <c r="F5" s="82" t="str">
         <f>'Update History'!F1</f>
         <v>CRMR30401</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="68"/>
+      <c r="H5" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="61"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="61"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="68"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="40"/>
       <c r="M5" s="68"/>
       <c r="N5" s="68"/>
       <c r="O5" s="68"/>
-    </row>
-    <row r="6" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="P5" s="68"/>
+    </row>
+    <row r="6" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="33">
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="33">
+        <v>51</v>
+      </c>
+      <c r="D6" s="35">
         <v>2</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="E6" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="F6" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="F6" s="129"/>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="128"/>
+      <c r="H6" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="I6" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="61"/>
       <c r="J6" s="61"/>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="61"/>
+      <c r="L6" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="L6" s="68"/>
       <c r="M6" s="68"/>
       <c r="N6" s="68"/>
-      <c r="O6" s="86"/>
-    </row>
-    <row r="7" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O6" s="68"/>
+      <c r="P6" s="86"/>
+    </row>
+    <row r="7" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="33">
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="133">
+      <c r="C7" s="33">
+        <v>51</v>
+      </c>
+      <c r="D7" s="132">
         <v>3</v>
       </c>
-      <c r="D7" s="135" t="s">
+      <c r="E7" s="134" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="128" t="s">
+      <c r="F7" s="127" t="s">
         <v>192</v>
       </c>
-      <c r="F7" s="132" t="s">
+      <c r="G7" s="131" t="s">
         <v>192</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="H7" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="I7" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I7" s="61"/>
       <c r="J7" s="61"/>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="61"/>
+      <c r="L7" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="L7" s="86"/>
       <c r="M7" s="86"/>
       <c r="N7" s="86"/>
       <c r="O7" s="86"/>
-    </row>
-    <row r="8" spans="1:15" s="34" customFormat="1" ht="11.25">
+      <c r="P7" s="86"/>
+    </row>
+    <row r="8" spans="1:16" s="34" customFormat="1" ht="11.25">
       <c r="A8" s="33">
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="133">
+      <c r="C8" s="33">
+        <v>51</v>
+      </c>
+      <c r="D8" s="132">
         <v>4</v>
       </c>
-      <c r="D8" s="135" t="s">
+      <c r="E8" s="134" t="s">
         <v>174</v>
       </c>
-      <c r="E8" s="128" t="s">
+      <c r="F8" s="127" t="s">
         <v>193</v>
       </c>
-      <c r="F8" s="132" t="s">
+      <c r="G8" s="131" t="s">
         <v>193</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="H8" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="61"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="61"/>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="61"/>
+      <c r="L8" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="L8" s="68"/>
       <c r="M8" s="68"/>
       <c r="N8" s="68"/>
-      <c r="O8" s="86"/>
-    </row>
-    <row r="9" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O8" s="68"/>
+      <c r="P8" s="86"/>
+    </row>
+    <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="33">
+        <v>51</v>
+      </c>
+      <c r="D9" s="35">
         <v>5</v>
       </c>
-      <c r="D9" s="135" t="s">
+      <c r="E9" s="134" t="s">
         <v>175</v>
       </c>
-      <c r="E9" s="128" t="s">
+      <c r="F9" s="127" t="s">
         <v>194</v>
       </c>
-      <c r="F9" s="132" t="s">
+      <c r="G9" s="131" t="s">
         <v>194</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="H9" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="I9" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I9" s="61"/>
       <c r="J9" s="61"/>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="61"/>
+      <c r="L9" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="L9" s="86"/>
       <c r="M9" s="86"/>
       <c r="N9" s="86"/>
       <c r="O9" s="86"/>
-    </row>
-    <row r="10" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="P9" s="86"/>
+    </row>
+    <row r="10" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="33">
+        <v>51</v>
+      </c>
+      <c r="D10" s="35">
         <v>6</v>
       </c>
-      <c r="D10" s="135" t="s">
+      <c r="E10" s="134" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="128" t="s">
+      <c r="F10" s="127" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="132" t="s">
+      <c r="G10" s="131" t="s">
         <v>195</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="H10" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="I10" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I10" s="61"/>
       <c r="J10" s="61"/>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="61"/>
+      <c r="L10" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="L10" s="68"/>
       <c r="M10" s="68"/>
       <c r="N10" s="68"/>
-      <c r="O10" s="86"/>
-    </row>
-    <row r="11" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O10" s="68"/>
+      <c r="P10" s="86"/>
+    </row>
+    <row r="11" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
         <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="133">
+      <c r="C11" s="33">
+        <v>51</v>
+      </c>
+      <c r="D11" s="132">
         <v>7</v>
       </c>
-      <c r="D11" s="135" t="s">
+      <c r="E11" s="134" t="s">
         <v>177</v>
       </c>
-      <c r="E11" s="128" t="s">
+      <c r="F11" s="127" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="132" t="s">
+      <c r="G11" s="131" t="s">
         <v>196</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="H11" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="I11" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I11" s="61"/>
       <c r="J11" s="61"/>
-      <c r="K11" s="40" t="s">
+      <c r="K11" s="61"/>
+      <c r="L11" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="L11" s="82"/>
-      <c r="M11" s="68"/>
+      <c r="M11" s="82"/>
       <c r="N11" s="68"/>
-      <c r="O11" s="86"/>
-    </row>
-    <row r="12" spans="1:15" s="34" customFormat="1" ht="11.25">
+      <c r="O11" s="68"/>
+      <c r="P11" s="86"/>
+    </row>
+    <row r="12" spans="1:16" s="34" customFormat="1" ht="11.25">
       <c r="A12" s="33">
         <v>8</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="133">
+      <c r="C12" s="33">
+        <v>51</v>
+      </c>
+      <c r="D12" s="132">
         <v>8</v>
       </c>
-      <c r="D12" s="135" t="s">
+      <c r="E12" s="134" t="s">
         <v>178</v>
       </c>
-      <c r="E12" s="128" t="s">
+      <c r="F12" s="127" t="s">
         <v>203</v>
       </c>
-      <c r="F12" s="132"/>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="131"/>
+      <c r="H12" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="I12" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I12" s="61"/>
       <c r="J12" s="61"/>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="61"/>
+      <c r="L12" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="L12" s="88"/>
-      <c r="M12" s="68"/>
+      <c r="M12" s="88"/>
       <c r="N12" s="68"/>
-      <c r="O12" s="86"/>
-    </row>
-    <row r="13" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O12" s="68"/>
+      <c r="P12" s="86"/>
+    </row>
+    <row r="13" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
         <v>9</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="133">
+      <c r="C13" s="33">
+        <v>51</v>
+      </c>
+      <c r="D13" s="132">
         <v>8.1</v>
       </c>
-      <c r="D13" s="135" t="s">
+      <c r="E13" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="E13" s="132" t="s">
+      <c r="F13" s="131" t="s">
         <v>197</v>
       </c>
-      <c r="F13" s="132" t="s">
+      <c r="G13" s="131" t="s">
         <v>197</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="H13" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="I13" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I13" s="61"/>
       <c r="J13" s="61"/>
-      <c r="K13" s="40" t="s">
+      <c r="K13" s="61"/>
+      <c r="L13" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="L13" s="88"/>
-      <c r="M13" s="68"/>
+      <c r="M13" s="88"/>
       <c r="N13" s="68"/>
-      <c r="O13" s="86"/>
-    </row>
-    <row r="14" spans="1:15" s="34" customFormat="1" ht="11.25">
+      <c r="O13" s="68"/>
+      <c r="P13" s="86"/>
+    </row>
+    <row r="14" spans="1:16" s="34" customFormat="1" ht="11.25">
       <c r="A14" s="33">
         <v>10</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="133">
+      <c r="C14" s="33">
+        <v>51</v>
+      </c>
+      <c r="D14" s="132">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D14" s="135" t="s">
+      <c r="E14" s="134" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="132" t="s">
+      <c r="F14" s="131" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="132" t="s">
+      <c r="G14" s="131" t="s">
         <v>198</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="H14" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="61"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="61"/>
-      <c r="K14" s="40" t="s">
+      <c r="K14" s="61"/>
+      <c r="L14" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="68"/>
+      <c r="M14" s="61"/>
       <c r="N14" s="68"/>
-      <c r="O14" s="86"/>
-    </row>
-    <row r="15" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O14" s="68"/>
+      <c r="P14" s="86"/>
+    </row>
+    <row r="15" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
         <v>11</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="133">
+      <c r="C15" s="33">
+        <v>51</v>
+      </c>
+      <c r="D15" s="132">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D15" s="135" t="s">
+      <c r="E15" s="134" t="s">
         <v>181</v>
       </c>
-      <c r="E15" s="128" t="s">
+      <c r="F15" s="127" t="s">
         <v>199</v>
       </c>
-      <c r="F15" s="132" t="s">
+      <c r="G15" s="131" t="s">
         <v>199</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="H15" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="I15" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I15" s="61"/>
       <c r="J15" s="61"/>
-      <c r="K15" s="40" t="s">
+      <c r="K15" s="61"/>
+      <c r="L15" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="L15" s="61"/>
-      <c r="M15" s="68"/>
+      <c r="M15" s="61"/>
       <c r="N15" s="68"/>
-      <c r="O15" s="86"/>
-    </row>
-    <row r="16" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O15" s="68"/>
+      <c r="P15" s="86"/>
+    </row>
+    <row r="16" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
         <v>12</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="133">
+      <c r="C16" s="33">
+        <v>51</v>
+      </c>
+      <c r="D16" s="132">
         <v>8</v>
       </c>
-      <c r="D16" s="135" t="s">
+      <c r="E16" s="134" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="128" t="s">
+      <c r="F16" s="127" t="s">
         <v>200</v>
       </c>
-      <c r="F16" s="132" t="s">
+      <c r="G16" s="131" t="s">
         <v>200</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="H16" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="I16" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I16" s="61"/>
       <c r="J16" s="61"/>
-      <c r="K16" s="40" t="s">
+      <c r="K16" s="61"/>
+      <c r="L16" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="68"/>
+      <c r="M16" s="61"/>
       <c r="N16" s="68"/>
-      <c r="O16" s="86"/>
-    </row>
-    <row r="17" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O16" s="68"/>
+      <c r="P16" s="86"/>
+    </row>
+    <row r="17" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="33">
         <v>13</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="133">
+      <c r="C17" s="33">
+        <v>51</v>
+      </c>
+      <c r="D17" s="132">
         <v>8.5</v>
       </c>
-      <c r="D17" s="135" t="s">
+      <c r="E17" s="134" t="s">
         <v>183</v>
       </c>
-      <c r="E17" s="128" t="s">
+      <c r="F17" s="127" t="s">
         <v>201</v>
       </c>
-      <c r="F17" s="132" t="s">
+      <c r="G17" s="131" t="s">
         <v>201</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="H17" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="I17" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I17" s="61"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40" t="s">
+      <c r="J17" s="61"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="L17" s="68"/>
       <c r="M17" s="68"/>
       <c r="N17" s="68"/>
-      <c r="O17" s="86"/>
-    </row>
-    <row r="18" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O17" s="68"/>
+      <c r="P17" s="86"/>
+    </row>
+    <row r="18" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
         <v>14</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="133">
+      <c r="C18" s="33">
+        <v>51</v>
+      </c>
+      <c r="D18" s="132">
         <v>9</v>
       </c>
-      <c r="D18" s="135" t="s">
+      <c r="E18" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="128" t="s">
+      <c r="F18" s="127" t="s">
         <v>202</v>
       </c>
-      <c r="F18" s="132" t="s">
+      <c r="G18" s="131" t="s">
         <v>202</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="H18" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H18" s="40" t="s">
+      <c r="I18" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I18" s="40"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="40" t="s">
+      <c r="K18" s="40"/>
+      <c r="L18" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="L18" s="40"/>
       <c r="M18" s="40"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="86"/>
-    </row>
-    <row r="19" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="N18" s="40"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="86"/>
+    </row>
+    <row r="19" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
         <v>15</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="134">
+      <c r="C19" s="33">
+        <v>51</v>
+      </c>
+      <c r="D19" s="133">
         <v>10</v>
       </c>
-      <c r="D19" s="135" t="s">
+      <c r="E19" s="134" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="F19" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="131"/>
+      <c r="H19" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="I19" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I19" s="40"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="40" t="s">
+      <c r="K19" s="40"/>
+      <c r="L19" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="L19" s="40"/>
       <c r="M19" s="40"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="86"/>
-    </row>
-    <row r="20" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="N19" s="40"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="86"/>
+    </row>
+    <row r="20" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
         <v>16</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="134">
+      <c r="C20" s="33">
+        <v>51</v>
+      </c>
+      <c r="D20" s="133">
         <v>10.1</v>
       </c>
-      <c r="D20" s="135" t="s">
+      <c r="E20" s="134" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="132" t="s">
+      <c r="F20" s="131" t="s">
         <v>205</v>
       </c>
-      <c r="F20" s="142" t="s">
+      <c r="G20" s="141" t="s">
         <v>205</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="H20" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="I20" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I20" s="40"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="40" t="s">
+      <c r="K20" s="40"/>
+      <c r="L20" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="L20" s="40"/>
       <c r="M20" s="40"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="86"/>
-    </row>
-    <row r="21" spans="1:15" s="34" customFormat="1" ht="11.25">
+      <c r="N20" s="40"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="86"/>
+    </row>
+    <row r="21" spans="1:16" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
         <v>17</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="33">
+        <v>51</v>
+      </c>
+      <c r="D21" s="35">
         <v>10.199999999999999</v>
       </c>
-      <c r="D21" s="136" t="s">
+      <c r="E21" s="135" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="132" t="s">
+      <c r="F21" s="131" t="s">
         <v>206</v>
       </c>
-      <c r="F21" s="142" t="s">
+      <c r="G21" s="141" t="s">
         <v>206</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="H21" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H21" s="40"/>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="40" t="s">
+      <c r="K21" s="40"/>
+      <c r="L21" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="L21" s="40"/>
       <c r="M21" s="40"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="86"/>
-    </row>
-    <row r="22" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="N21" s="40"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="86"/>
+    </row>
+    <row r="22" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
         <v>18</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="33">
+        <v>51</v>
+      </c>
+      <c r="D22" s="35">
         <v>10.3</v>
       </c>
-      <c r="D22" s="135" t="s">
+      <c r="E22" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="E22" s="131" t="s">
+      <c r="F22" s="130" t="s">
         <v>207</v>
       </c>
-      <c r="F22" s="143" t="s">
+      <c r="G22" s="142" t="s">
         <v>207</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="H22" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H22" s="40" t="s">
+      <c r="I22" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I22" s="40"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="40" t="s">
+      <c r="K22" s="40"/>
+      <c r="L22" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="L22" s="40"/>
       <c r="M22" s="40"/>
-      <c r="N22" s="86"/>
+      <c r="N22" s="40"/>
       <c r="O22" s="86"/>
-    </row>
-    <row r="23" spans="1:15" s="34" customFormat="1" ht="22.5">
+      <c r="P22" s="86"/>
+    </row>
+    <row r="23" spans="1:16" s="34" customFormat="1" ht="22.5">
       <c r="A23" s="33">
         <v>19</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="33">
+        <v>51</v>
+      </c>
+      <c r="D23" s="35">
         <v>11</v>
       </c>
-      <c r="D23" s="135" t="s">
+      <c r="E23" s="134" t="s">
         <v>189</v>
       </c>
-      <c r="E23" s="198" t="s">
+      <c r="F23" s="199" t="s">
         <v>209</v>
       </c>
-      <c r="F23" s="201" t="s">
+      <c r="G23" s="202" t="s">
         <v>209</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="H23" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="40" t="s">
+      <c r="I23" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I23" s="40"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="40" t="s">
+      <c r="K23" s="40"/>
+      <c r="L23" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="L23" s="40"/>
       <c r="M23" s="40"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="86"/>
-    </row>
-    <row r="24" spans="1:15" s="34" customFormat="1" ht="22.5">
+      <c r="N23" s="40"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="86"/>
+    </row>
+    <row r="24" spans="1:16" s="34" customFormat="1" ht="22.5">
       <c r="A24" s="33">
         <v>20</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="33">
+        <v>51</v>
+      </c>
+      <c r="D24" s="35">
         <v>12</v>
       </c>
-      <c r="D24" s="135" t="s">
+      <c r="E24" s="134" t="s">
         <v>190</v>
       </c>
-      <c r="E24" s="199"/>
-      <c r="F24" s="202"/>
-      <c r="G24" s="40" t="s">
+      <c r="F24" s="200"/>
+      <c r="G24" s="203"/>
+      <c r="H24" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H24" s="40" t="s">
+      <c r="I24" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I24" s="40"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="40" t="s">
+      <c r="J24" s="40"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="L24" s="60"/>
       <c r="M24" s="60"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="32"/>
-    </row>
-    <row r="25" spans="1:15" s="34" customFormat="1" ht="22.5">
+      <c r="N24" s="60"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="32"/>
+    </row>
+    <row r="25" spans="1:16" s="34" customFormat="1" ht="22.5">
       <c r="A25" s="33">
         <v>21</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="33">
+        <v>51</v>
+      </c>
+      <c r="D25" s="35">
         <v>13</v>
       </c>
-      <c r="D25" s="135" t="s">
+      <c r="E25" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="E25" s="199"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="40" t="s">
+      <c r="F25" s="200"/>
+      <c r="G25" s="203"/>
+      <c r="H25" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H25" s="40" t="s">
+      <c r="I25" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I25" s="40"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="40" t="s">
+      <c r="J25" s="40"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="L25" s="61"/>
-      <c r="M25" s="60"/>
+      <c r="M25" s="61"/>
       <c r="N25" s="60"/>
-      <c r="O25" s="32"/>
-    </row>
-    <row r="26" spans="1:15" s="34" customFormat="1" ht="22.5">
+      <c r="O25" s="60"/>
+      <c r="P25" s="32"/>
+    </row>
+    <row r="26" spans="1:16" s="34" customFormat="1" ht="22.5">
       <c r="A26" s="33">
         <v>22</v>
       </c>
       <c r="B26" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="33">
+        <v>51</v>
+      </c>
+      <c r="D26" s="35">
         <v>14</v>
       </c>
-      <c r="D26" s="135" t="s">
+      <c r="E26" s="134" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="200"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="40" t="s">
+      <c r="F26" s="201"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="I26" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I26" s="40"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="40" t="s">
+      <c r="J26" s="40"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="L26" s="61"/>
-      <c r="M26" s="60"/>
+      <c r="M26" s="61"/>
       <c r="N26" s="60"/>
-      <c r="O26" s="32"/>
-    </row>
-    <row r="27" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O26" s="60"/>
+      <c r="P26" s="32"/>
+    </row>
+    <row r="27" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
         <v>23</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="40"/>
+      <c r="B27" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="33">
+        <v>51</v>
+      </c>
+      <c r="D27" s="35">
+        <v>15</v>
+      </c>
+      <c r="E27" s="145" t="s">
+        <v>220</v>
+      </c>
+      <c r="F27" s="144" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27" s="144"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="60"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="40"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="32"/>
-    </row>
-    <row r="28" spans="1:15" s="34" customFormat="1">
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="144"/>
+      <c r="P27" s="144" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="34" customFormat="1" ht="22.5">
       <c r="A28" s="33">
         <v>24</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="40"/>
+      <c r="B28" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="33">
+        <v>51</v>
+      </c>
+      <c r="D28" s="35">
+        <v>16</v>
+      </c>
+      <c r="E28" s="145" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28" s="144" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" s="144"/>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="60"/>
+      <c r="J28" s="40"/>
       <c r="K28" s="40"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="32"/>
-    </row>
-    <row r="29" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="144"/>
+      <c r="P28" s="144" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
         <v>25</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="40"/>
+      <c r="B29" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="33">
+        <v>51</v>
+      </c>
+      <c r="D29" s="35">
+        <v>17</v>
+      </c>
+      <c r="E29" s="145" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" s="144" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" s="144"/>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="60"/>
+      <c r="J29" s="40"/>
       <c r="K29" s="40"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="32"/>
-    </row>
-    <row r="30" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="144"/>
+      <c r="P29" s="144" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="33">
         <v>26</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="60"/>
+      <c r="B30" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="33">
+        <v>51</v>
+      </c>
+      <c r="D30" s="35">
+        <v>18</v>
+      </c>
+      <c r="E30" s="134" t="s">
+        <v>231</v>
+      </c>
+      <c r="F30" s="128" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" s="128" t="s">
+        <v>232</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="J30" s="40"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="M30" s="61"/>
       <c r="N30" s="60"/>
-      <c r="O30" s="32"/>
-    </row>
-    <row r="31" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O30" s="60"/>
+      <c r="P30" s="32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="33">
         <v>27</v>
       </c>
       <c r="B31" s="33"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="40"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
       <c r="H31" s="40"/>
       <c r="I31" s="40"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="60"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="61"/>
       <c r="N31" s="60"/>
-      <c r="O31" s="32"/>
-    </row>
-    <row r="32" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O31" s="60"/>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="33">
         <v>28</v>
       </c>
       <c r="B32" s="33"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="40"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="60"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="61"/>
       <c r="N32" s="60"/>
-      <c r="O32" s="32"/>
-    </row>
-    <row r="33" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O32" s="60"/>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="33">
         <v>29</v>
       </c>
       <c r="B33" s="33"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="40"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
       <c r="H33" s="40"/>
       <c r="I33" s="40"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="60"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="61"/>
       <c r="N33" s="60"/>
-      <c r="O33" s="32"/>
-    </row>
-    <row r="34" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O33" s="60"/>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="33">
         <v>30</v>
       </c>
       <c r="B34" s="33"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="40"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
       <c r="H34" s="40"/>
       <c r="I34" s="40"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="60"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="61"/>
       <c r="N34" s="60"/>
-      <c r="O34" s="32"/>
-    </row>
-    <row r="35" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O34" s="60"/>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="33">
         <v>31</v>
       </c>
       <c r="B35" s="33"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="40"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
       <c r="I35" s="40"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="60"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="61"/>
       <c r="N35" s="60"/>
-      <c r="O35" s="32"/>
-    </row>
-    <row r="36" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O35" s="60"/>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="36" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="33">
         <v>32</v>
       </c>
       <c r="B36" s="33"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="40"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="60"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="61"/>
       <c r="N36" s="60"/>
-      <c r="O36" s="32"/>
-    </row>
-    <row r="37" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O36" s="60"/>
+      <c r="P36" s="32"/>
+    </row>
+    <row r="37" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="33">
         <v>33</v>
       </c>
       <c r="B37" s="33"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="40"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="60"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="61"/>
       <c r="N37" s="60"/>
-      <c r="O37" s="32"/>
-    </row>
-    <row r="38" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O37" s="60"/>
+      <c r="P37" s="32"/>
+    </row>
+    <row r="38" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="33">
         <v>34</v>
       </c>
       <c r="B38" s="33"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="40"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="40"/>
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="60"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="61"/>
       <c r="N38" s="60"/>
-      <c r="O38" s="32"/>
-    </row>
-    <row r="39" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O38" s="60"/>
+      <c r="P38" s="32"/>
+    </row>
+    <row r="39" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="33">
         <v>35</v>
       </c>
       <c r="B39" s="33"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="40"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="68"/>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
       <c r="I39" s="40"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="60"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="61"/>
       <c r="N39" s="60"/>
-      <c r="O39" s="32"/>
-    </row>
-    <row r="40" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O39" s="60"/>
+      <c r="P39" s="32"/>
+    </row>
+    <row r="40" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="33">
         <v>36</v>
       </c>
       <c r="B40" s="33"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="40"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="68"/>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
       <c r="I40" s="40"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="60"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="61"/>
       <c r="N40" s="60"/>
-      <c r="O40" s="32"/>
-    </row>
-    <row r="41" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O40" s="60"/>
+      <c r="P40" s="32"/>
+    </row>
+    <row r="41" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="33">
         <v>37</v>
       </c>
       <c r="B41" s="33"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="40"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="68"/>
       <c r="G41" s="40"/>
       <c r="H41" s="40"/>
       <c r="I41" s="40"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="60"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="61"/>
       <c r="N41" s="60"/>
-      <c r="O41" s="32"/>
-    </row>
-    <row r="42" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O41" s="60"/>
+      <c r="P41" s="32"/>
+    </row>
+    <row r="42" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="33">
         <v>38</v>
       </c>
       <c r="B42" s="33"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="129"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="40"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="68"/>
       <c r="G42" s="40"/>
       <c r="H42" s="40"/>
       <c r="I42" s="40"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="60"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="61"/>
       <c r="N42" s="60"/>
-      <c r="O42" s="32"/>
-    </row>
-    <row r="43" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O42" s="60"/>
+      <c r="P42" s="32"/>
+    </row>
+    <row r="43" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A43" s="33">
         <v>39</v>
       </c>
       <c r="B43" s="33"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="40"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="68"/>
       <c r="G43" s="40"/>
       <c r="H43" s="40"/>
       <c r="I43" s="40"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="60"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="61"/>
       <c r="N43" s="60"/>
-      <c r="O43" s="32"/>
-    </row>
-    <row r="44" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O43" s="60"/>
+      <c r="P43" s="32"/>
+    </row>
+    <row r="44" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="33">
         <v>40</v>
       </c>
       <c r="B44" s="33"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="129"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="40"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="68"/>
       <c r="G44" s="40"/>
       <c r="H44" s="40"/>
       <c r="I44" s="40"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="60"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="61"/>
       <c r="N44" s="60"/>
-      <c r="O44" s="32"/>
-    </row>
-    <row r="45" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O44" s="60"/>
+      <c r="P44" s="32"/>
+    </row>
+    <row r="45" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="33">
         <v>41</v>
       </c>
       <c r="B45" s="33"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="40"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="68"/>
       <c r="G45" s="40"/>
       <c r="H45" s="40"/>
       <c r="I45" s="40"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="60"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="61"/>
       <c r="N45" s="60"/>
-      <c r="O45" s="32"/>
-    </row>
-    <row r="46" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O45" s="60"/>
+      <c r="P45" s="32"/>
+    </row>
+    <row r="46" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A46" s="33">
         <v>42</v>
       </c>
       <c r="B46" s="33"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="129"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="40"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="68"/>
       <c r="G46" s="40"/>
       <c r="H46" s="40"/>
       <c r="I46" s="40"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="60"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="61"/>
       <c r="N46" s="60"/>
-      <c r="O46" s="32"/>
-    </row>
-    <row r="47" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O46" s="60"/>
+      <c r="P46" s="32"/>
+    </row>
+    <row r="47" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A47" s="33">
         <v>43</v>
       </c>
       <c r="B47" s="33"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="129"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="40"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="68"/>
       <c r="G47" s="40"/>
       <c r="H47" s="40"/>
       <c r="I47" s="40"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="60"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="61"/>
       <c r="N47" s="60"/>
-      <c r="O47" s="32"/>
-    </row>
-    <row r="48" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O47" s="60"/>
+      <c r="P47" s="32"/>
+    </row>
+    <row r="48" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A48" s="33">
         <v>44</v>
       </c>
       <c r="B48" s="33"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="129"/>
-      <c r="E48" s="73"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="128"/>
       <c r="F48" s="73"/>
-      <c r="G48" s="40"/>
+      <c r="G48" s="73"/>
       <c r="H48" s="40"/>
       <c r="I48" s="40"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="60"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="61"/>
       <c r="N48" s="60"/>
-      <c r="O48" s="32"/>
-    </row>
-    <row r="49" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O48" s="60"/>
+      <c r="P48" s="32"/>
+    </row>
+    <row r="49" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="33">
         <v>45</v>
       </c>
       <c r="B49" s="33"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="129"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="40"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="73"/>
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
       <c r="I49" s="40"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="60"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="61"/>
       <c r="N49" s="60"/>
-      <c r="O49" s="32"/>
-    </row>
-    <row r="50" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O49" s="60"/>
+      <c r="P49" s="32"/>
+    </row>
+    <row r="50" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="33">
         <v>46</v>
       </c>
       <c r="B50" s="33"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="129"/>
-      <c r="E50" s="73"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="128"/>
       <c r="F50" s="73"/>
-      <c r="G50" s="40"/>
+      <c r="G50" s="73"/>
       <c r="H50" s="40"/>
       <c r="I50" s="40"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="61"/>
-      <c r="M50" s="60"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="61"/>
       <c r="N50" s="60"/>
-      <c r="O50" s="32"/>
-    </row>
-    <row r="51" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O50" s="60"/>
+      <c r="P50" s="32"/>
+    </row>
+    <row r="51" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A51" s="33">
         <v>47</v>
       </c>
       <c r="B51" s="33"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="40"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="73"/>
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
       <c r="I51" s="40"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="60"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="61"/>
       <c r="N51" s="60"/>
-      <c r="O51" s="32"/>
-    </row>
-    <row r="52" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O51" s="60"/>
+      <c r="P51" s="32"/>
+    </row>
+    <row r="52" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="33">
         <v>48</v>
       </c>
       <c r="B52" s="33"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="129"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="40"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="73"/>
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
       <c r="I52" s="40"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="61"/>
-      <c r="M52" s="60"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="61"/>
       <c r="N52" s="60"/>
-      <c r="O52" s="32"/>
-    </row>
-    <row r="53" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O52" s="60"/>
+      <c r="P52" s="32"/>
+    </row>
+    <row r="53" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A53" s="33">
         <v>49</v>
       </c>
       <c r="B53" s="33"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="40"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="73"/>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
       <c r="I53" s="40"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="61"/>
-      <c r="M53" s="60"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="61"/>
       <c r="N53" s="60"/>
-      <c r="O53" s="32"/>
-    </row>
-    <row r="54" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O53" s="60"/>
+      <c r="P53" s="32"/>
+    </row>
+    <row r="54" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A54" s="33">
         <v>50</v>
       </c>
       <c r="B54" s="33"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="40"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="73"/>
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
       <c r="I54" s="40"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="61"/>
-      <c r="M54" s="60"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="61"/>
       <c r="N54" s="60"/>
-      <c r="O54" s="32"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
     <mergeCell ref="F23:F26"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M25:N54 L24:M24">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M24:N24 N25:O26 N30:O54">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I27 I30:I54">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="F5 F35:F54"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K54">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5 G35:G54"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L54">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H26 H30:H54">
       <formula1>"Caption,Textbox,DateTimePicker,GridColumn,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H27:H29">
+      <formula1>"Caption,Textbox,DateTimePicker,Grid Column,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9415,7 +9616,7 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:J11"/>
+      <selection activeCell="B5" sqref="B5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9439,7 +9640,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="212" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="123"/>
@@ -9474,7 +9675,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="212"/>
+      <c r="A2" s="213"/>
       <c r="B2" s="124"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -9522,37 +9723,29 @@
       <c r="E4" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="173" t="s">
+      <c r="F4" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173" t="s">
+      <c r="G4" s="174"/>
+      <c r="H4" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-    </row>
-    <row r="5" spans="1:12" s="34" customFormat="1" ht="28.5" customHeight="1">
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+    </row>
+    <row r="5" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A5" s="33">
         <v>1</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>162</v>
-      </c>
+      <c r="B5" s="33"/>
       <c r="C5" s="33"/>
-      <c r="D5" s="127" t="s">
-        <v>134</v>
-      </c>
+      <c r="D5" s="126"/>
       <c r="E5" s="32"/>
-      <c r="F5" s="209" t="s">
-        <v>220</v>
-      </c>
-      <c r="G5" s="210"/>
-      <c r="H5" s="206" t="s">
-        <v>221</v>
-      </c>
-      <c r="I5" s="207"/>
-      <c r="J5" s="208"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="208"/>
+      <c r="J5" s="209"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9562,11 +9755,11 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="206"/>
-      <c r="I6" s="207"/>
-      <c r="J6" s="208"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="209"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9576,11 +9769,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="206"/>
-      <c r="I7" s="207"/>
-      <c r="J7" s="208"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="209"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9590,11 +9783,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="209"/>
-      <c r="G8" s="210"/>
-      <c r="H8" s="206"/>
-      <c r="I8" s="207"/>
-      <c r="J8" s="208"/>
+      <c r="F8" s="210"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="207"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="209"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9604,11 +9797,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="209"/>
-      <c r="G9" s="210"/>
-      <c r="H9" s="206"/>
-      <c r="I9" s="207"/>
-      <c r="J9" s="208"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="207"/>
+      <c r="I9" s="208"/>
+      <c r="J9" s="209"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9618,11 +9811,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="206"/>
-      <c r="I10" s="207"/>
-      <c r="J10" s="208"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="207"/>
+      <c r="I10" s="208"/>
+      <c r="J10" s="209"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9632,11 +9825,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="206"/>
-      <c r="I11" s="207"/>
-      <c r="J11" s="208"/>
+      <c r="F11" s="210"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="207"/>
+      <c r="I11" s="208"/>
+      <c r="J11" s="209"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9646,11 +9839,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="209"/>
-      <c r="G12" s="210"/>
-      <c r="H12" s="206"/>
-      <c r="I12" s="207"/>
-      <c r="J12" s="208"/>
+      <c r="F12" s="210"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="207"/>
+      <c r="I12" s="208"/>
+      <c r="J12" s="209"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9660,11 +9853,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="210"/>
-      <c r="H13" s="206"/>
-      <c r="I13" s="207"/>
-      <c r="J13" s="208"/>
+      <c r="F13" s="210"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="207"/>
+      <c r="I13" s="208"/>
+      <c r="J13" s="209"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9674,11 +9867,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="210"/>
-      <c r="H14" s="206"/>
-      <c r="I14" s="207"/>
-      <c r="J14" s="208"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="207"/>
+      <c r="I14" s="208"/>
+      <c r="J14" s="209"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9688,11 +9881,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="209"/>
-      <c r="G15" s="210"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="208"/>
+      <c r="F15" s="210"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="208"/>
+      <c r="J15" s="209"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9702,11 +9895,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="210"/>
-      <c r="H16" s="206"/>
-      <c r="I16" s="207"/>
-      <c r="J16" s="208"/>
+      <c r="F16" s="210"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="207"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="209"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9716,11 +9909,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="209"/>
-      <c r="G17" s="210"/>
-      <c r="H17" s="206"/>
-      <c r="I17" s="207"/>
-      <c r="J17" s="208"/>
+      <c r="F17" s="210"/>
+      <c r="G17" s="211"/>
+      <c r="H17" s="207"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="209"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9730,11 +9923,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="210"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="207"/>
-      <c r="J18" s="208"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="211"/>
+      <c r="H18" s="207"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="209"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9744,11 +9937,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="210"/>
-      <c r="H19" s="206"/>
-      <c r="I19" s="207"/>
-      <c r="J19" s="208"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="211"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="209"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9758,11 +9951,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="209"/>
-      <c r="G20" s="210"/>
-      <c r="H20" s="206"/>
-      <c r="I20" s="207"/>
-      <c r="J20" s="208"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="207"/>
+      <c r="I20" s="208"/>
+      <c r="J20" s="209"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9772,11 +9965,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="210"/>
-      <c r="H21" s="206"/>
-      <c r="I21" s="207"/>
-      <c r="J21" s="208"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="207"/>
+      <c r="I21" s="208"/>
+      <c r="J21" s="209"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9786,11 +9979,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="169"/>
-      <c r="H22" s="206"/>
-      <c r="I22" s="207"/>
-      <c r="J22" s="208"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="207"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="209"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9800,11 +9993,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="206"/>
-      <c r="I23" s="207"/>
-      <c r="J23" s="208"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="207"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="209"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9814,11 +10007,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="169"/>
-      <c r="H24" s="206"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="208"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="209"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9828,11 +10021,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="207"/>
-      <c r="J25" s="208"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="207"/>
+      <c r="I25" s="208"/>
+      <c r="J25" s="209"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9842,11 +10035,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="169"/>
-      <c r="H26" s="206"/>
-      <c r="I26" s="207"/>
-      <c r="J26" s="208"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="207"/>
+      <c r="I26" s="208"/>
+      <c r="J26" s="209"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9856,11 +10049,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="169"/>
-      <c r="H27" s="206"/>
-      <c r="I27" s="207"/>
-      <c r="J27" s="208"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="207"/>
+      <c r="I27" s="208"/>
+      <c r="J27" s="209"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9870,11 +10063,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="206"/>
-      <c r="I28" s="207"/>
-      <c r="J28" s="208"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="207"/>
+      <c r="I28" s="208"/>
+      <c r="J28" s="209"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9884,11 +10077,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="206"/>
-      <c r="I29" s="207"/>
-      <c r="J29" s="208"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="207"/>
+      <c r="I29" s="208"/>
+      <c r="J29" s="209"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9898,11 +10091,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="206"/>
-      <c r="I30" s="207"/>
-      <c r="J30" s="208"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="207"/>
+      <c r="I30" s="208"/>
+      <c r="J30" s="209"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9912,11 +10105,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="169"/>
-      <c r="H31" s="206"/>
-      <c r="I31" s="207"/>
-      <c r="J31" s="208"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="207"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="209"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -9926,11 +10119,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="206"/>
-      <c r="I32" s="207"/>
-      <c r="J32" s="208"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="207"/>
+      <c r="I32" s="208"/>
+      <c r="J32" s="209"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -9947,11 +10140,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="169"/>
-      <c r="H33" s="206"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="208"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="207"/>
+      <c r="I33" s="208"/>
+      <c r="J33" s="209"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -9968,11 +10161,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="169"/>
-      <c r="H34" s="206"/>
-      <c r="I34" s="207"/>
-      <c r="J34" s="208"/>
+      <c r="F34" s="168"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="207"/>
+      <c r="I34" s="208"/>
+      <c r="J34" s="209"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -9989,11 +10182,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="169"/>
-      <c r="H35" s="206"/>
-      <c r="I35" s="207"/>
-      <c r="J35" s="208"/>
+      <c r="F35" s="168"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="207"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="209"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -10010,11 +10203,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="169"/>
-      <c r="H36" s="206"/>
-      <c r="I36" s="207"/>
-      <c r="J36" s="208"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="207"/>
+      <c r="I36" s="208"/>
+      <c r="J36" s="209"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -10031,11 +10224,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="169"/>
-      <c r="H37" s="206"/>
-      <c r="I37" s="207"/>
-      <c r="J37" s="208"/>
+      <c r="F37" s="168"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="208"/>
+      <c r="J37" s="209"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -10052,11 +10245,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="169"/>
-      <c r="H38" s="206"/>
-      <c r="I38" s="207"/>
-      <c r="J38" s="208"/>
+      <c r="F38" s="168"/>
+      <c r="G38" s="170"/>
+      <c r="H38" s="207"/>
+      <c r="I38" s="208"/>
+      <c r="J38" s="209"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -10073,11 +10266,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="167"/>
-      <c r="G39" s="169"/>
-      <c r="H39" s="206"/>
-      <c r="I39" s="207"/>
-      <c r="J39" s="208"/>
+      <c r="F39" s="168"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="207"/>
+      <c r="I39" s="208"/>
+      <c r="J39" s="209"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -10094,11 +10287,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="169"/>
-      <c r="H40" s="206"/>
-      <c r="I40" s="207"/>
-      <c r="J40" s="208"/>
+      <c r="F40" s="168"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="207"/>
+      <c r="I40" s="208"/>
+      <c r="J40" s="209"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -10115,11 +10308,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="167"/>
-      <c r="G41" s="169"/>
-      <c r="H41" s="206"/>
-      <c r="I41" s="207"/>
-      <c r="J41" s="208"/>
+      <c r="F41" s="168"/>
+      <c r="G41" s="170"/>
+      <c r="H41" s="207"/>
+      <c r="I41" s="208"/>
+      <c r="J41" s="209"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -10136,11 +10329,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="167"/>
-      <c r="G42" s="169"/>
-      <c r="H42" s="206"/>
-      <c r="I42" s="207"/>
-      <c r="J42" s="208"/>
+      <c r="F42" s="168"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="207"/>
+      <c r="I42" s="208"/>
+      <c r="J42" s="209"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -10157,11 +10350,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="167"/>
-      <c r="G43" s="169"/>
-      <c r="H43" s="206"/>
-      <c r="I43" s="207"/>
-      <c r="J43" s="208"/>
+      <c r="F43" s="168"/>
+      <c r="G43" s="170"/>
+      <c r="H43" s="207"/>
+      <c r="I43" s="208"/>
+      <c r="J43" s="209"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -10178,11 +10371,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="167"/>
-      <c r="G44" s="169"/>
-      <c r="H44" s="206"/>
-      <c r="I44" s="207"/>
-      <c r="J44" s="208"/>
+      <c r="F44" s="168"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="207"/>
+      <c r="I44" s="208"/>
+      <c r="J44" s="209"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -10199,11 +10392,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="167"/>
-      <c r="G45" s="169"/>
-      <c r="H45" s="206"/>
-      <c r="I45" s="207"/>
-      <c r="J45" s="208"/>
+      <c r="F45" s="168"/>
+      <c r="G45" s="170"/>
+      <c r="H45" s="207"/>
+      <c r="I45" s="208"/>
+      <c r="J45" s="209"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -10220,11 +10413,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="169"/>
-      <c r="H46" s="206"/>
-      <c r="I46" s="207"/>
-      <c r="J46" s="208"/>
+      <c r="F46" s="168"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="207"/>
+      <c r="I46" s="208"/>
+      <c r="J46" s="209"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -10241,11 +10434,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="167"/>
-      <c r="G47" s="169"/>
-      <c r="H47" s="206"/>
-      <c r="I47" s="207"/>
-      <c r="J47" s="208"/>
+      <c r="F47" s="168"/>
+      <c r="G47" s="170"/>
+      <c r="H47" s="207"/>
+      <c r="I47" s="208"/>
+      <c r="J47" s="209"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -10262,11 +10455,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="167"/>
-      <c r="G48" s="169"/>
-      <c r="H48" s="206"/>
-      <c r="I48" s="207"/>
-      <c r="J48" s="208"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="170"/>
+      <c r="H48" s="207"/>
+      <c r="I48" s="208"/>
+      <c r="J48" s="209"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -10283,11 +10476,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="167"/>
-      <c r="G49" s="169"/>
-      <c r="H49" s="206"/>
-      <c r="I49" s="207"/>
-      <c r="J49" s="208"/>
+      <c r="F49" s="168"/>
+      <c r="G49" s="170"/>
+      <c r="H49" s="207"/>
+      <c r="I49" s="208"/>
+      <c r="J49" s="209"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -10304,11 +10497,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="167"/>
-      <c r="G50" s="169"/>
-      <c r="H50" s="206"/>
-      <c r="I50" s="207"/>
-      <c r="J50" s="208"/>
+      <c r="F50" s="168"/>
+      <c r="G50" s="170"/>
+      <c r="H50" s="207"/>
+      <c r="I50" s="208"/>
+      <c r="J50" s="209"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -10325,11 +10518,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="167"/>
-      <c r="G51" s="169"/>
-      <c r="H51" s="206"/>
-      <c r="I51" s="207"/>
-      <c r="J51" s="208"/>
+      <c r="F51" s="168"/>
+      <c r="G51" s="170"/>
+      <c r="H51" s="207"/>
+      <c r="I51" s="208"/>
+      <c r="J51" s="209"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -10346,11 +10539,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="167"/>
-      <c r="G52" s="169"/>
-      <c r="H52" s="206"/>
-      <c r="I52" s="207"/>
-      <c r="J52" s="208"/>
+      <c r="F52" s="168"/>
+      <c r="G52" s="170"/>
+      <c r="H52" s="207"/>
+      <c r="I52" s="208"/>
+      <c r="J52" s="209"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -10367,11 +10560,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="167"/>
-      <c r="G53" s="169"/>
-      <c r="H53" s="206"/>
-      <c r="I53" s="207"/>
-      <c r="J53" s="208"/>
+      <c r="F53" s="168"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="207"/>
+      <c r="I53" s="208"/>
+      <c r="J53" s="209"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -10388,11 +10581,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="167"/>
-      <c r="G54" s="169"/>
-      <c r="H54" s="206"/>
-      <c r="I54" s="207"/>
-      <c r="J54" s="208"/>
+      <c r="F54" s="168"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="207"/>
+      <c r="I54" s="208"/>
+      <c r="J54" s="209"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -10409,11 +10602,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="167"/>
-      <c r="G55" s="169"/>
-      <c r="H55" s="206"/>
-      <c r="I55" s="207"/>
-      <c r="J55" s="208"/>
+      <c r="F55" s="168"/>
+      <c r="G55" s="170"/>
+      <c r="H55" s="207"/>
+      <c r="I55" s="208"/>
+      <c r="J55" s="209"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -10430,11 +10623,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="167"/>
-      <c r="G56" s="169"/>
-      <c r="H56" s="206"/>
-      <c r="I56" s="207"/>
-      <c r="J56" s="208"/>
+      <c r="F56" s="168"/>
+      <c r="G56" s="170"/>
+      <c r="H56" s="207"/>
+      <c r="I56" s="208"/>
+      <c r="J56" s="209"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -10571,7 +10764,7 @@
   <dimension ref="A1:T1048467"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="G1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10599,23 +10792,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
       <c r="H1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="216" t="str">
+      <c r="I1" s="217" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="J1" s="216"/>
+      <c r="J1" s="217"/>
       <c r="K1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10642,21 +10835,21 @@
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="173"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
       <c r="H2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="216" t="str">
+      <c r="I2" s="217" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="J2" s="216"/>
+      <c r="J2" s="217"/>
       <c r="K2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10710,12 +10903,12 @@
       <c r="I4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="180" t="s">
+      <c r="J4" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="182"/>
-      <c r="L4" s="182"/>
-      <c r="M4" s="181"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="183"/>
+      <c r="M4" s="182"/>
       <c r="N4" s="39" t="s">
         <v>56</v>
       </c>
@@ -10751,29 +10944,29 @@
       <c r="H5" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="126" t="s">
+      <c r="I5" s="125" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="213" t="s">
+      <c r="J5" s="214" t="s">
+        <v>215</v>
+      </c>
+      <c r="K5" s="215"/>
+      <c r="L5" s="215"/>
+      <c r="M5" s="216"/>
+      <c r="N5" s="143" t="s">
+        <v>216</v>
+      </c>
+      <c r="O5" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="K5" s="214"/>
-      <c r="L5" s="214"/>
-      <c r="M5" s="215"/>
-      <c r="N5" s="144" t="s">
-        <v>218</v>
-      </c>
-      <c r="O5" s="144" t="s">
-        <v>219</v>
-      </c>
       <c r="P5" s="75" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="R5" s="125" t="s">
-        <v>215</v>
+      <c r="R5" s="144" t="s">
+        <v>228</v>
       </c>
       <c r="S5" s="63"/>
       <c r="T5" s="63"/>
@@ -10790,10 +10983,10 @@
       <c r="G6" s="62"/>
       <c r="H6" s="62"/>
       <c r="I6" s="81"/>
-      <c r="J6" s="213"/>
-      <c r="K6" s="214"/>
-      <c r="L6" s="214"/>
-      <c r="M6" s="215"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="215"/>
+      <c r="L6" s="215"/>
+      <c r="M6" s="216"/>
       <c r="N6" s="86"/>
       <c r="O6" s="87"/>
       <c r="P6" s="75"/>
@@ -10814,15 +11007,15 @@
       <c r="G7" s="62"/>
       <c r="H7" s="62"/>
       <c r="I7" s="81"/>
-      <c r="J7" s="213"/>
-      <c r="K7" s="214"/>
-      <c r="L7" s="214"/>
-      <c r="M7" s="215"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="215"/>
+      <c r="L7" s="215"/>
+      <c r="M7" s="216"/>
       <c r="N7" s="87"/>
       <c r="O7" s="87"/>
       <c r="P7" s="75"/>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="141"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="140"/>
       <c r="S7" s="63"/>
       <c r="T7" s="63"/>
     </row>
@@ -10838,15 +11031,15 @@
       <c r="G8" s="62"/>
       <c r="H8" s="62"/>
       <c r="I8" s="81"/>
-      <c r="J8" s="213"/>
-      <c r="K8" s="214"/>
-      <c r="L8" s="214"/>
-      <c r="M8" s="215"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="215"/>
+      <c r="L8" s="215"/>
+      <c r="M8" s="216"/>
       <c r="N8" s="87"/>
       <c r="O8" s="87"/>
       <c r="P8" s="75"/>
-      <c r="Q8" s="130"/>
-      <c r="R8" s="141"/>
+      <c r="Q8" s="129"/>
+      <c r="R8" s="140"/>
       <c r="S8" s="63"/>
       <c r="T8" s="63"/>
     </row>
@@ -10862,15 +11055,15 @@
       <c r="G9" s="62"/>
       <c r="H9" s="62"/>
       <c r="I9" s="81"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="214"/>
-      <c r="M9" s="215"/>
+      <c r="J9" s="214"/>
+      <c r="K9" s="215"/>
+      <c r="L9" s="215"/>
+      <c r="M9" s="216"/>
       <c r="N9" s="87"/>
       <c r="O9" s="87"/>
       <c r="P9" s="75"/>
-      <c r="Q9" s="140"/>
-      <c r="R9" s="141"/>
+      <c r="Q9" s="139"/>
+      <c r="R9" s="140"/>
       <c r="S9" s="63"/>
       <c r="T9" s="63"/>
     </row>
@@ -10886,15 +11079,15 @@
       <c r="G10" s="62"/>
       <c r="H10" s="62"/>
       <c r="I10" s="81"/>
-      <c r="J10" s="213"/>
-      <c r="K10" s="214"/>
-      <c r="L10" s="214"/>
-      <c r="M10" s="215"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="215"/>
+      <c r="L10" s="215"/>
+      <c r="M10" s="216"/>
       <c r="N10" s="87"/>
       <c r="O10" s="87"/>
       <c r="P10" s="75"/>
-      <c r="Q10" s="139"/>
-      <c r="R10" s="141"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="140"/>
       <c r="S10" s="63"/>
       <c r="T10" s="63"/>
     </row>
@@ -10910,15 +11103,15 @@
       <c r="G11" s="62"/>
       <c r="H11" s="62"/>
       <c r="I11" s="81"/>
-      <c r="J11" s="213"/>
-      <c r="K11" s="214"/>
-      <c r="L11" s="214"/>
-      <c r="M11" s="215"/>
+      <c r="J11" s="214"/>
+      <c r="K11" s="215"/>
+      <c r="L11" s="215"/>
+      <c r="M11" s="216"/>
       <c r="N11" s="87"/>
       <c r="O11" s="87"/>
       <c r="P11" s="75"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="141"/>
+      <c r="Q11" s="129"/>
+      <c r="R11" s="140"/>
       <c r="S11" s="63"/>
       <c r="T11" s="63"/>
     </row>
@@ -10934,15 +11127,15 @@
       <c r="G12" s="62"/>
       <c r="H12" s="62"/>
       <c r="I12" s="81"/>
-      <c r="J12" s="213"/>
-      <c r="K12" s="214"/>
-      <c r="L12" s="214"/>
-      <c r="M12" s="215"/>
+      <c r="J12" s="214"/>
+      <c r="K12" s="215"/>
+      <c r="L12" s="215"/>
+      <c r="M12" s="216"/>
       <c r="N12" s="84"/>
       <c r="O12" s="84"/>
       <c r="P12" s="75"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="141"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="140"/>
       <c r="S12" s="63"/>
       <c r="T12" s="63"/>
     </row>
@@ -10958,15 +11151,15 @@
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
       <c r="I13" s="81"/>
-      <c r="J13" s="213"/>
-      <c r="K13" s="214"/>
-      <c r="L13" s="214"/>
-      <c r="M13" s="215"/>
+      <c r="J13" s="214"/>
+      <c r="K13" s="215"/>
+      <c r="L13" s="215"/>
+      <c r="M13" s="216"/>
       <c r="N13" s="84"/>
       <c r="O13" s="84"/>
       <c r="P13" s="75"/>
-      <c r="Q13" s="130"/>
-      <c r="R13" s="141"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="140"/>
       <c r="S13" s="63"/>
       <c r="T13" s="63"/>
     </row>
@@ -10982,15 +11175,15 @@
       <c r="G14" s="62"/>
       <c r="H14" s="62"/>
       <c r="I14" s="81"/>
-      <c r="J14" s="213"/>
-      <c r="K14" s="214"/>
-      <c r="L14" s="214"/>
-      <c r="M14" s="215"/>
+      <c r="J14" s="214"/>
+      <c r="K14" s="215"/>
+      <c r="L14" s="215"/>
+      <c r="M14" s="216"/>
       <c r="N14" s="80"/>
       <c r="O14" s="80"/>
       <c r="P14" s="75"/>
-      <c r="Q14" s="138"/>
-      <c r="R14" s="136"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="135"/>
       <c r="S14" s="63"/>
       <c r="T14" s="63"/>
     </row>
@@ -11006,10 +11199,10 @@
       <c r="G15" s="62"/>
       <c r="H15" s="62"/>
       <c r="I15" s="81"/>
-      <c r="J15" s="213"/>
-      <c r="K15" s="214"/>
-      <c r="L15" s="214"/>
-      <c r="M15" s="215"/>
+      <c r="J15" s="214"/>
+      <c r="K15" s="215"/>
+      <c r="L15" s="215"/>
+      <c r="M15" s="216"/>
       <c r="N15" s="80"/>
       <c r="O15" s="80"/>
       <c r="P15" s="75"/>
@@ -11030,10 +11223,10 @@
       <c r="G16" s="62"/>
       <c r="H16" s="62"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="213"/>
-      <c r="K16" s="214"/>
-      <c r="L16" s="214"/>
-      <c r="M16" s="215"/>
+      <c r="J16" s="214"/>
+      <c r="K16" s="215"/>
+      <c r="L16" s="215"/>
+      <c r="M16" s="216"/>
       <c r="N16" s="71"/>
       <c r="O16" s="59"/>
       <c r="P16" s="75"/>
@@ -11054,10 +11247,10 @@
       <c r="G17" s="62"/>
       <c r="H17" s="62"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="213"/>
-      <c r="K17" s="214"/>
-      <c r="L17" s="214"/>
-      <c r="M17" s="215"/>
+      <c r="J17" s="214"/>
+      <c r="K17" s="215"/>
+      <c r="L17" s="215"/>
+      <c r="M17" s="216"/>
       <c r="N17" s="59"/>
       <c r="O17" s="59"/>
       <c r="P17" s="75"/>
@@ -11078,10 +11271,10 @@
       <c r="G18" s="62"/>
       <c r="H18" s="62"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="213"/>
-      <c r="K18" s="214"/>
-      <c r="L18" s="214"/>
-      <c r="M18" s="215"/>
+      <c r="J18" s="214"/>
+      <c r="K18" s="215"/>
+      <c r="L18" s="215"/>
+      <c r="M18" s="216"/>
       <c r="N18" s="59"/>
       <c r="O18" s="59"/>
       <c r="P18" s="75"/>
@@ -11102,10 +11295,10 @@
       <c r="G19" s="62"/>
       <c r="H19" s="62"/>
       <c r="I19" s="40"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="214"/>
-      <c r="L19" s="214"/>
-      <c r="M19" s="215"/>
+      <c r="J19" s="214"/>
+      <c r="K19" s="215"/>
+      <c r="L19" s="215"/>
+      <c r="M19" s="216"/>
       <c r="N19" s="59"/>
       <c r="O19" s="59"/>
       <c r="P19" s="75"/>
@@ -11126,10 +11319,10 @@
       <c r="G20" s="62"/>
       <c r="H20" s="62"/>
       <c r="I20" s="40"/>
-      <c r="J20" s="213"/>
-      <c r="K20" s="214"/>
-      <c r="L20" s="214"/>
-      <c r="M20" s="215"/>
+      <c r="J20" s="214"/>
+      <c r="K20" s="215"/>
+      <c r="L20" s="215"/>
+      <c r="M20" s="216"/>
       <c r="N20" s="59"/>
       <c r="O20" s="59"/>
       <c r="P20" s="75"/>
@@ -11150,10 +11343,10 @@
       <c r="G21" s="62"/>
       <c r="H21" s="62"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="213"/>
-      <c r="K21" s="214"/>
-      <c r="L21" s="214"/>
-      <c r="M21" s="215"/>
+      <c r="J21" s="214"/>
+      <c r="K21" s="215"/>
+      <c r="L21" s="215"/>
+      <c r="M21" s="216"/>
       <c r="N21" s="59"/>
       <c r="O21" s="59"/>
       <c r="P21" s="75"/>
@@ -11174,10 +11367,10 @@
       <c r="G22" s="62"/>
       <c r="H22" s="62"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="213"/>
-      <c r="K22" s="214"/>
-      <c r="L22" s="214"/>
-      <c r="M22" s="215"/>
+      <c r="J22" s="214"/>
+      <c r="K22" s="215"/>
+      <c r="L22" s="215"/>
+      <c r="M22" s="216"/>
       <c r="N22" s="59"/>
       <c r="O22" s="59"/>
       <c r="P22" s="75"/>
@@ -11198,10 +11391,10 @@
       <c r="G23" s="62"/>
       <c r="H23" s="62"/>
       <c r="I23" s="40"/>
-      <c r="J23" s="213"/>
-      <c r="K23" s="214"/>
-      <c r="L23" s="214"/>
-      <c r="M23" s="215"/>
+      <c r="J23" s="214"/>
+      <c r="K23" s="215"/>
+      <c r="L23" s="215"/>
+      <c r="M23" s="216"/>
       <c r="N23" s="59"/>
       <c r="O23" s="59"/>
       <c r="P23" s="75"/>
@@ -11222,10 +11415,10 @@
       <c r="G24" s="62"/>
       <c r="H24" s="62"/>
       <c r="I24" s="40"/>
-      <c r="J24" s="213"/>
-      <c r="K24" s="214"/>
-      <c r="L24" s="214"/>
-      <c r="M24" s="215"/>
+      <c r="J24" s="214"/>
+      <c r="K24" s="215"/>
+      <c r="L24" s="215"/>
+      <c r="M24" s="216"/>
       <c r="N24" s="59"/>
       <c r="O24" s="59"/>
       <c r="P24" s="75"/>
@@ -11246,10 +11439,10 @@
       <c r="G25" s="62"/>
       <c r="H25" s="62"/>
       <c r="I25" s="40"/>
-      <c r="J25" s="213"/>
-      <c r="K25" s="214"/>
-      <c r="L25" s="214"/>
-      <c r="M25" s="215"/>
+      <c r="J25" s="214"/>
+      <c r="K25" s="215"/>
+      <c r="L25" s="215"/>
+      <c r="M25" s="216"/>
       <c r="N25" s="59"/>
       <c r="O25" s="59"/>
       <c r="P25" s="75"/>
@@ -11270,10 +11463,10 @@
       <c r="G26" s="62"/>
       <c r="H26" s="62"/>
       <c r="I26" s="40"/>
-      <c r="J26" s="213"/>
-      <c r="K26" s="214"/>
-      <c r="L26" s="214"/>
-      <c r="M26" s="215"/>
+      <c r="J26" s="214"/>
+      <c r="K26" s="215"/>
+      <c r="L26" s="215"/>
+      <c r="M26" s="216"/>
       <c r="N26" s="59"/>
       <c r="O26" s="59"/>
       <c r="P26" s="75"/>
@@ -11294,10 +11487,10 @@
       <c r="G27" s="62"/>
       <c r="H27" s="62"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="213"/>
-      <c r="K27" s="214"/>
-      <c r="L27" s="214"/>
-      <c r="M27" s="215"/>
+      <c r="J27" s="214"/>
+      <c r="K27" s="215"/>
+      <c r="L27" s="215"/>
+      <c r="M27" s="216"/>
       <c r="N27" s="59"/>
       <c r="O27" s="59"/>
       <c r="P27" s="75"/>
@@ -11318,10 +11511,10 @@
       <c r="G28" s="62"/>
       <c r="H28" s="62"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="213"/>
-      <c r="K28" s="214"/>
-      <c r="L28" s="214"/>
-      <c r="M28" s="215"/>
+      <c r="J28" s="214"/>
+      <c r="K28" s="215"/>
+      <c r="L28" s="215"/>
+      <c r="M28" s="216"/>
       <c r="N28" s="59"/>
       <c r="O28" s="59"/>
       <c r="P28" s="75"/>
@@ -11342,10 +11535,10 @@
       <c r="G29" s="62"/>
       <c r="H29" s="62"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="213"/>
-      <c r="K29" s="214"/>
-      <c r="L29" s="214"/>
-      <c r="M29" s="215"/>
+      <c r="J29" s="214"/>
+      <c r="K29" s="215"/>
+      <c r="L29" s="215"/>
+      <c r="M29" s="216"/>
       <c r="N29" s="59"/>
       <c r="O29" s="59"/>
       <c r="P29" s="75"/>
@@ -11366,10 +11559,10 @@
       <c r="G30" s="62"/>
       <c r="H30" s="62"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="213"/>
-      <c r="K30" s="214"/>
-      <c r="L30" s="214"/>
-      <c r="M30" s="215"/>
+      <c r="J30" s="214"/>
+      <c r="K30" s="215"/>
+      <c r="L30" s="215"/>
+      <c r="M30" s="216"/>
       <c r="N30" s="59"/>
       <c r="O30" s="59"/>
       <c r="P30" s="75"/>
@@ -11390,10 +11583,10 @@
       <c r="G31" s="62"/>
       <c r="H31" s="62"/>
       <c r="I31" s="40"/>
-      <c r="J31" s="213"/>
-      <c r="K31" s="214"/>
-      <c r="L31" s="214"/>
-      <c r="M31" s="215"/>
+      <c r="J31" s="214"/>
+      <c r="K31" s="215"/>
+      <c r="L31" s="215"/>
+      <c r="M31" s="216"/>
       <c r="N31" s="59"/>
       <c r="O31" s="59"/>
       <c r="P31" s="75"/>
@@ -11414,10 +11607,10 @@
       <c r="G32" s="62"/>
       <c r="H32" s="62"/>
       <c r="I32" s="40"/>
-      <c r="J32" s="213"/>
-      <c r="K32" s="214"/>
-      <c r="L32" s="214"/>
-      <c r="M32" s="215"/>
+      <c r="J32" s="214"/>
+      <c r="K32" s="215"/>
+      <c r="L32" s="215"/>
+      <c r="M32" s="216"/>
       <c r="N32" s="59"/>
       <c r="O32" s="59"/>
       <c r="P32" s="75"/>
@@ -11438,10 +11631,10 @@
       <c r="G33" s="62"/>
       <c r="H33" s="62"/>
       <c r="I33" s="40"/>
-      <c r="J33" s="213"/>
-      <c r="K33" s="214"/>
-      <c r="L33" s="214"/>
-      <c r="M33" s="215"/>
+      <c r="J33" s="214"/>
+      <c r="K33" s="215"/>
+      <c r="L33" s="215"/>
+      <c r="M33" s="216"/>
       <c r="N33" s="59"/>
       <c r="O33" s="59"/>
       <c r="P33" s="75"/>
@@ -11462,10 +11655,10 @@
       <c r="G34" s="62"/>
       <c r="H34" s="62"/>
       <c r="I34" s="81"/>
-      <c r="J34" s="213"/>
-      <c r="K34" s="214"/>
-      <c r="L34" s="214"/>
-      <c r="M34" s="215"/>
+      <c r="J34" s="214"/>
+      <c r="K34" s="215"/>
+      <c r="L34" s="215"/>
+      <c r="M34" s="216"/>
       <c r="N34" s="84"/>
       <c r="O34" s="84"/>
       <c r="P34" s="75"/>
@@ -11486,10 +11679,10 @@
       <c r="G35" s="62"/>
       <c r="H35" s="62"/>
       <c r="I35" s="40"/>
-      <c r="J35" s="213"/>
-      <c r="K35" s="214"/>
-      <c r="L35" s="214"/>
-      <c r="M35" s="215"/>
+      <c r="J35" s="214"/>
+      <c r="K35" s="215"/>
+      <c r="L35" s="215"/>
+      <c r="M35" s="216"/>
       <c r="N35" s="59"/>
       <c r="O35" s="59"/>
       <c r="P35" s="75"/>
@@ -11510,10 +11703,10 @@
       <c r="G36" s="62"/>
       <c r="H36" s="62"/>
       <c r="I36" s="40"/>
-      <c r="J36" s="213"/>
-      <c r="K36" s="214"/>
-      <c r="L36" s="214"/>
-      <c r="M36" s="215"/>
+      <c r="J36" s="214"/>
+      <c r="K36" s="215"/>
+      <c r="L36" s="215"/>
+      <c r="M36" s="216"/>
       <c r="N36" s="59"/>
       <c r="O36" s="59"/>
       <c r="P36" s="75"/>
@@ -11534,10 +11727,10 @@
       <c r="G37" s="62"/>
       <c r="H37" s="62"/>
       <c r="I37" s="40"/>
-      <c r="J37" s="213"/>
-      <c r="K37" s="214"/>
-      <c r="L37" s="214"/>
-      <c r="M37" s="215"/>
+      <c r="J37" s="214"/>
+      <c r="K37" s="215"/>
+      <c r="L37" s="215"/>
+      <c r="M37" s="216"/>
       <c r="N37" s="59"/>
       <c r="O37" s="59"/>
       <c r="P37" s="75"/>
@@ -11558,10 +11751,10 @@
       <c r="G38" s="62"/>
       <c r="H38" s="62"/>
       <c r="I38" s="40"/>
-      <c r="J38" s="213"/>
-      <c r="K38" s="214"/>
-      <c r="L38" s="214"/>
-      <c r="M38" s="215"/>
+      <c r="J38" s="214"/>
+      <c r="K38" s="215"/>
+      <c r="L38" s="215"/>
+      <c r="M38" s="216"/>
       <c r="N38" s="59"/>
       <c r="O38" s="59"/>
       <c r="P38" s="75"/>
@@ -11582,10 +11775,10 @@
       <c r="G39" s="62"/>
       <c r="H39" s="62"/>
       <c r="I39" s="40"/>
-      <c r="J39" s="213"/>
-      <c r="K39" s="214"/>
-      <c r="L39" s="214"/>
-      <c r="M39" s="215"/>
+      <c r="J39" s="214"/>
+      <c r="K39" s="215"/>
+      <c r="L39" s="215"/>
+      <c r="M39" s="216"/>
       <c r="N39" s="59"/>
       <c r="O39" s="59"/>
       <c r="P39" s="75"/>
@@ -11606,10 +11799,10 @@
       <c r="G40" s="62"/>
       <c r="H40" s="62"/>
       <c r="I40" s="40"/>
-      <c r="J40" s="213"/>
-      <c r="K40" s="214"/>
-      <c r="L40" s="214"/>
-      <c r="M40" s="215"/>
+      <c r="J40" s="214"/>
+      <c r="K40" s="215"/>
+      <c r="L40" s="215"/>
+      <c r="M40" s="216"/>
       <c r="N40" s="73"/>
       <c r="O40" s="73"/>
       <c r="P40" s="75"/>
@@ -11630,10 +11823,10 @@
       <c r="G41" s="62"/>
       <c r="H41" s="62"/>
       <c r="I41" s="40"/>
-      <c r="J41" s="213"/>
-      <c r="K41" s="214"/>
-      <c r="L41" s="214"/>
-      <c r="M41" s="215"/>
+      <c r="J41" s="214"/>
+      <c r="K41" s="215"/>
+      <c r="L41" s="215"/>
+      <c r="M41" s="216"/>
       <c r="N41" s="73"/>
       <c r="O41" s="73"/>
       <c r="P41" s="75"/>
@@ -11654,10 +11847,10 @@
       <c r="G42" s="62"/>
       <c r="H42" s="62"/>
       <c r="I42" s="40"/>
-      <c r="J42" s="213"/>
-      <c r="K42" s="214"/>
-      <c r="L42" s="214"/>
-      <c r="M42" s="215"/>
+      <c r="J42" s="214"/>
+      <c r="K42" s="215"/>
+      <c r="L42" s="215"/>
+      <c r="M42" s="216"/>
       <c r="N42" s="73"/>
       <c r="O42" s="73"/>
       <c r="P42" s="75"/>
@@ -11678,10 +11871,10 @@
       <c r="G43" s="62"/>
       <c r="H43" s="62"/>
       <c r="I43" s="40"/>
-      <c r="J43" s="213"/>
-      <c r="K43" s="214"/>
-      <c r="L43" s="214"/>
-      <c r="M43" s="215"/>
+      <c r="J43" s="214"/>
+      <c r="K43" s="215"/>
+      <c r="L43" s="215"/>
+      <c r="M43" s="216"/>
       <c r="N43" s="73"/>
       <c r="O43" s="73"/>
       <c r="P43" s="75"/>
@@ -11702,10 +11895,10 @@
       <c r="G44" s="62"/>
       <c r="H44" s="62"/>
       <c r="I44" s="40"/>
-      <c r="J44" s="213"/>
-      <c r="K44" s="214"/>
-      <c r="L44" s="214"/>
-      <c r="M44" s="215"/>
+      <c r="J44" s="214"/>
+      <c r="K44" s="215"/>
+      <c r="L44" s="215"/>
+      <c r="M44" s="216"/>
       <c r="N44" s="73"/>
       <c r="O44" s="73"/>
       <c r="P44" s="75"/>
@@ -11726,10 +11919,10 @@
       <c r="G45" s="62"/>
       <c r="H45" s="62"/>
       <c r="I45" s="40"/>
-      <c r="J45" s="213"/>
-      <c r="K45" s="214"/>
-      <c r="L45" s="214"/>
-      <c r="M45" s="215"/>
+      <c r="J45" s="214"/>
+      <c r="K45" s="215"/>
+      <c r="L45" s="215"/>
+      <c r="M45" s="216"/>
       <c r="N45" s="73"/>
       <c r="O45" s="73"/>
       <c r="P45" s="75"/>
@@ -11750,10 +11943,10 @@
       <c r="G46" s="62"/>
       <c r="H46" s="62"/>
       <c r="I46" s="40"/>
-      <c r="J46" s="213"/>
-      <c r="K46" s="214"/>
-      <c r="L46" s="214"/>
-      <c r="M46" s="215"/>
+      <c r="J46" s="214"/>
+      <c r="K46" s="215"/>
+      <c r="L46" s="215"/>
+      <c r="M46" s="216"/>
       <c r="N46" s="73"/>
       <c r="O46" s="73"/>
       <c r="P46" s="75"/>
@@ -11774,10 +11967,10 @@
       <c r="G47" s="62"/>
       <c r="H47" s="62"/>
       <c r="I47" s="40"/>
-      <c r="J47" s="213"/>
-      <c r="K47" s="214"/>
-      <c r="L47" s="214"/>
-      <c r="M47" s="215"/>
+      <c r="J47" s="214"/>
+      <c r="K47" s="215"/>
+      <c r="L47" s="215"/>
+      <c r="M47" s="216"/>
       <c r="N47" s="73"/>
       <c r="O47" s="73"/>
       <c r="P47" s="75"/>
@@ -11798,10 +11991,10 @@
       <c r="G48" s="62"/>
       <c r="H48" s="62"/>
       <c r="I48" s="40"/>
-      <c r="J48" s="213"/>
-      <c r="K48" s="214"/>
-      <c r="L48" s="214"/>
-      <c r="M48" s="215"/>
+      <c r="J48" s="214"/>
+      <c r="K48" s="215"/>
+      <c r="L48" s="215"/>
+      <c r="M48" s="216"/>
       <c r="N48" s="73"/>
       <c r="O48" s="73"/>
       <c r="P48" s="75"/>
@@ -11822,10 +12015,10 @@
       <c r="G49" s="62"/>
       <c r="H49" s="62"/>
       <c r="I49" s="40"/>
-      <c r="J49" s="213"/>
-      <c r="K49" s="214"/>
-      <c r="L49" s="214"/>
-      <c r="M49" s="215"/>
+      <c r="J49" s="214"/>
+      <c r="K49" s="215"/>
+      <c r="L49" s="215"/>
+      <c r="M49" s="216"/>
       <c r="N49" s="73"/>
       <c r="O49" s="73"/>
       <c r="P49" s="75"/>
@@ -11846,10 +12039,10 @@
       <c r="G50" s="62"/>
       <c r="H50" s="62"/>
       <c r="I50" s="40"/>
-      <c r="J50" s="213"/>
-      <c r="K50" s="214"/>
-      <c r="L50" s="214"/>
-      <c r="M50" s="215"/>
+      <c r="J50" s="214"/>
+      <c r="K50" s="215"/>
+      <c r="L50" s="215"/>
+      <c r="M50" s="216"/>
       <c r="N50" s="73"/>
       <c r="O50" s="73"/>
       <c r="P50" s="75"/>
@@ -11870,10 +12063,10 @@
       <c r="G51" s="62"/>
       <c r="H51" s="62"/>
       <c r="I51" s="40"/>
-      <c r="J51" s="213"/>
-      <c r="K51" s="214"/>
-      <c r="L51" s="214"/>
-      <c r="M51" s="215"/>
+      <c r="J51" s="214"/>
+      <c r="K51" s="215"/>
+      <c r="L51" s="215"/>
+      <c r="M51" s="216"/>
       <c r="N51" s="73"/>
       <c r="O51" s="73"/>
       <c r="P51" s="75"/>
@@ -11894,10 +12087,10 @@
       <c r="G52" s="62"/>
       <c r="H52" s="62"/>
       <c r="I52" s="40"/>
-      <c r="J52" s="213"/>
-      <c r="K52" s="214"/>
-      <c r="L52" s="214"/>
-      <c r="M52" s="215"/>
+      <c r="J52" s="214"/>
+      <c r="K52" s="215"/>
+      <c r="L52" s="215"/>
+      <c r="M52" s="216"/>
       <c r="N52" s="73"/>
       <c r="O52" s="73"/>
       <c r="P52" s="75"/>
@@ -11918,10 +12111,10 @@
       <c r="G53" s="62"/>
       <c r="H53" s="62"/>
       <c r="I53" s="40"/>
-      <c r="J53" s="213"/>
-      <c r="K53" s="214"/>
-      <c r="L53" s="214"/>
-      <c r="M53" s="215"/>
+      <c r="J53" s="214"/>
+      <c r="K53" s="215"/>
+      <c r="L53" s="215"/>
+      <c r="M53" s="216"/>
       <c r="N53" s="73"/>
       <c r="O53" s="73"/>
       <c r="P53" s="75"/>
@@ -11942,10 +12135,10 @@
       <c r="G54" s="62"/>
       <c r="H54" s="62"/>
       <c r="I54" s="40"/>
-      <c r="J54" s="213"/>
-      <c r="K54" s="214"/>
-      <c r="L54" s="214"/>
-      <c r="M54" s="215"/>
+      <c r="J54" s="214"/>
+      <c r="K54" s="215"/>
+      <c r="L54" s="215"/>
+      <c r="M54" s="216"/>
       <c r="N54" s="73"/>
       <c r="O54" s="73"/>
       <c r="P54" s="75"/>
@@ -11966,10 +12159,10 @@
       <c r="G55" s="62"/>
       <c r="H55" s="62"/>
       <c r="I55" s="40"/>
-      <c r="J55" s="213"/>
-      <c r="K55" s="214"/>
-      <c r="L55" s="214"/>
-      <c r="M55" s="215"/>
+      <c r="J55" s="214"/>
+      <c r="K55" s="215"/>
+      <c r="L55" s="215"/>
+      <c r="M55" s="216"/>
       <c r="N55" s="73"/>
       <c r="O55" s="73"/>
       <c r="P55" s="75"/>
@@ -11990,10 +12183,10 @@
       <c r="G56" s="62"/>
       <c r="H56" s="62"/>
       <c r="I56" s="40"/>
-      <c r="J56" s="213"/>
-      <c r="K56" s="214"/>
-      <c r="L56" s="214"/>
-      <c r="M56" s="215"/>
+      <c r="J56" s="214"/>
+      <c r="K56" s="215"/>
+      <c r="L56" s="215"/>
+      <c r="M56" s="216"/>
       <c r="N56" s="73"/>
       <c r="O56" s="73"/>
       <c r="P56" s="75"/>
@@ -12014,10 +12207,10 @@
       <c r="G57" s="62"/>
       <c r="H57" s="62"/>
       <c r="I57" s="40"/>
-      <c r="J57" s="213"/>
-      <c r="K57" s="214"/>
-      <c r="L57" s="214"/>
-      <c r="M57" s="215"/>
+      <c r="J57" s="214"/>
+      <c r="K57" s="215"/>
+      <c r="L57" s="215"/>
+      <c r="M57" s="216"/>
       <c r="N57" s="73"/>
       <c r="O57" s="73"/>
       <c r="P57" s="75"/>
@@ -12038,10 +12231,10 @@
       <c r="G58" s="62"/>
       <c r="H58" s="62"/>
       <c r="I58" s="40"/>
-      <c r="J58" s="213"/>
-      <c r="K58" s="214"/>
-      <c r="L58" s="214"/>
-      <c r="M58" s="215"/>
+      <c r="J58" s="214"/>
+      <c r="K58" s="215"/>
+      <c r="L58" s="215"/>
+      <c r="M58" s="216"/>
       <c r="N58" s="73"/>
       <c r="O58" s="73"/>
       <c r="P58" s="75"/>
@@ -12062,10 +12255,10 @@
       <c r="G59" s="62"/>
       <c r="H59" s="62"/>
       <c r="I59" s="40"/>
-      <c r="J59" s="213"/>
-      <c r="K59" s="214"/>
-      <c r="L59" s="214"/>
-      <c r="M59" s="215"/>
+      <c r="J59" s="214"/>
+      <c r="K59" s="215"/>
+      <c r="L59" s="215"/>
+      <c r="M59" s="216"/>
       <c r="N59" s="73"/>
       <c r="O59" s="73"/>
       <c r="P59" s="75"/>
@@ -12086,10 +12279,10 @@
       <c r="G60" s="62"/>
       <c r="H60" s="62"/>
       <c r="I60" s="40"/>
-      <c r="J60" s="213"/>
-      <c r="K60" s="214"/>
-      <c r="L60" s="214"/>
-      <c r="M60" s="215"/>
+      <c r="J60" s="214"/>
+      <c r="K60" s="215"/>
+      <c r="L60" s="215"/>
+      <c r="M60" s="216"/>
       <c r="N60" s="73"/>
       <c r="O60" s="73"/>
       <c r="P60" s="75"/>
@@ -12110,10 +12303,10 @@
       <c r="G61" s="62"/>
       <c r="H61" s="62"/>
       <c r="I61" s="40"/>
-      <c r="J61" s="213"/>
-      <c r="K61" s="214"/>
-      <c r="L61" s="214"/>
-      <c r="M61" s="215"/>
+      <c r="J61" s="214"/>
+      <c r="K61" s="215"/>
+      <c r="L61" s="215"/>
+      <c r="M61" s="216"/>
       <c r="N61" s="73"/>
       <c r="O61" s="73"/>
       <c r="P61" s="75"/>
@@ -12134,10 +12327,10 @@
       <c r="G62" s="62"/>
       <c r="H62" s="62"/>
       <c r="I62" s="40"/>
-      <c r="J62" s="213"/>
-      <c r="K62" s="214"/>
-      <c r="L62" s="214"/>
-      <c r="M62" s="215"/>
+      <c r="J62" s="214"/>
+      <c r="K62" s="215"/>
+      <c r="L62" s="215"/>
+      <c r="M62" s="216"/>
       <c r="N62" s="83"/>
       <c r="O62" s="83"/>
       <c r="P62" s="75"/>
@@ -12158,10 +12351,10 @@
       <c r="G63" s="62"/>
       <c r="H63" s="62"/>
       <c r="I63" s="40"/>
-      <c r="J63" s="213"/>
-      <c r="K63" s="214"/>
-      <c r="L63" s="214"/>
-      <c r="M63" s="215"/>
+      <c r="J63" s="214"/>
+      <c r="K63" s="215"/>
+      <c r="L63" s="215"/>
+      <c r="M63" s="216"/>
       <c r="N63" s="83"/>
       <c r="O63" s="83"/>
       <c r="P63" s="75"/>
@@ -12182,10 +12375,10 @@
       <c r="G64" s="62"/>
       <c r="H64" s="62"/>
       <c r="I64" s="40"/>
-      <c r="J64" s="213"/>
-      <c r="K64" s="214"/>
-      <c r="L64" s="214"/>
-      <c r="M64" s="215"/>
+      <c r="J64" s="214"/>
+      <c r="K64" s="215"/>
+      <c r="L64" s="215"/>
+      <c r="M64" s="216"/>
       <c r="N64" s="83"/>
       <c r="O64" s="83"/>
       <c r="P64" s="75"/>
@@ -12204,10 +12397,10 @@
       <c r="G65" s="62"/>
       <c r="H65" s="62"/>
       <c r="I65" s="40"/>
-      <c r="J65" s="213"/>
-      <c r="K65" s="214"/>
-      <c r="L65" s="214"/>
-      <c r="M65" s="215"/>
+      <c r="J65" s="214"/>
+      <c r="K65" s="215"/>
+      <c r="L65" s="215"/>
+      <c r="M65" s="216"/>
       <c r="N65" s="83"/>
       <c r="O65" s="83"/>
       <c r="P65" s="75"/>
@@ -12226,10 +12419,10 @@
       <c r="G66" s="62"/>
       <c r="H66" s="62"/>
       <c r="I66" s="40"/>
-      <c r="J66" s="213"/>
-      <c r="K66" s="214"/>
-      <c r="L66" s="214"/>
-      <c r="M66" s="215"/>
+      <c r="J66" s="214"/>
+      <c r="K66" s="215"/>
+      <c r="L66" s="215"/>
+      <c r="M66" s="216"/>
       <c r="N66" s="83"/>
       <c r="O66" s="83"/>
       <c r="P66" s="75"/>
@@ -12248,10 +12441,10 @@
       <c r="G67" s="62"/>
       <c r="H67" s="62"/>
       <c r="I67" s="40"/>
-      <c r="J67" s="213"/>
-      <c r="K67" s="214"/>
-      <c r="L67" s="214"/>
-      <c r="M67" s="215"/>
+      <c r="J67" s="214"/>
+      <c r="K67" s="215"/>
+      <c r="L67" s="215"/>
+      <c r="M67" s="216"/>
       <c r="N67" s="83"/>
       <c r="O67" s="83"/>
       <c r="P67" s="75"/>
@@ -12270,10 +12463,10 @@
       <c r="G68" s="62"/>
       <c r="H68" s="62"/>
       <c r="I68" s="40"/>
-      <c r="J68" s="213"/>
-      <c r="K68" s="214"/>
-      <c r="L68" s="214"/>
-      <c r="M68" s="215"/>
+      <c r="J68" s="214"/>
+      <c r="K68" s="215"/>
+      <c r="L68" s="215"/>
+      <c r="M68" s="216"/>
       <c r="N68" s="83"/>
       <c r="O68" s="83"/>
       <c r="P68" s="75"/>
@@ -12292,10 +12485,10 @@
       <c r="G69" s="62"/>
       <c r="H69" s="62"/>
       <c r="I69" s="40"/>
-      <c r="J69" s="213"/>
-      <c r="K69" s="214"/>
-      <c r="L69" s="214"/>
-      <c r="M69" s="215"/>
+      <c r="J69" s="214"/>
+      <c r="K69" s="215"/>
+      <c r="L69" s="215"/>
+      <c r="M69" s="216"/>
       <c r="N69" s="83"/>
       <c r="O69" s="83"/>
       <c r="P69" s="75"/>
@@ -12314,10 +12507,10 @@
       <c r="G70" s="62"/>
       <c r="H70" s="62"/>
       <c r="I70" s="40"/>
-      <c r="J70" s="213"/>
-      <c r="K70" s="214"/>
-      <c r="L70" s="214"/>
-      <c r="M70" s="215"/>
+      <c r="J70" s="214"/>
+      <c r="K70" s="215"/>
+      <c r="L70" s="215"/>
+      <c r="M70" s="216"/>
       <c r="N70" s="83"/>
       <c r="O70" s="83"/>
       <c r="P70" s="75"/>
@@ -12336,10 +12529,10 @@
       <c r="G71" s="62"/>
       <c r="H71" s="62"/>
       <c r="I71" s="40"/>
-      <c r="J71" s="213"/>
-      <c r="K71" s="214"/>
-      <c r="L71" s="214"/>
-      <c r="M71" s="215"/>
+      <c r="J71" s="214"/>
+      <c r="K71" s="215"/>
+      <c r="L71" s="215"/>
+      <c r="M71" s="216"/>
       <c r="N71" s="83"/>
       <c r="O71" s="83"/>
       <c r="P71" s="75"/>
@@ -12358,10 +12551,10 @@
       <c r="G72" s="62"/>
       <c r="H72" s="62"/>
       <c r="I72" s="40"/>
-      <c r="J72" s="213"/>
-      <c r="K72" s="214"/>
-      <c r="L72" s="214"/>
-      <c r="M72" s="215"/>
+      <c r="J72" s="214"/>
+      <c r="K72" s="215"/>
+      <c r="L72" s="215"/>
+      <c r="M72" s="216"/>
       <c r="N72" s="83"/>
       <c r="O72" s="83"/>
       <c r="P72" s="75"/>
@@ -12380,10 +12573,10 @@
       <c r="G73" s="62"/>
       <c r="H73" s="62"/>
       <c r="I73" s="40"/>
-      <c r="J73" s="213"/>
-      <c r="K73" s="214"/>
-      <c r="L73" s="214"/>
-      <c r="M73" s="215"/>
+      <c r="J73" s="214"/>
+      <c r="K73" s="215"/>
+      <c r="L73" s="215"/>
+      <c r="M73" s="216"/>
       <c r="N73" s="83"/>
       <c r="O73" s="83"/>
       <c r="P73" s="75"/>
@@ -12402,10 +12595,10 @@
       <c r="G74" s="62"/>
       <c r="H74" s="62"/>
       <c r="I74" s="40"/>
-      <c r="J74" s="213"/>
-      <c r="K74" s="214"/>
-      <c r="L74" s="214"/>
-      <c r="M74" s="215"/>
+      <c r="J74" s="214"/>
+      <c r="K74" s="215"/>
+      <c r="L74" s="215"/>
+      <c r="M74" s="216"/>
       <c r="N74" s="83"/>
       <c r="O74" s="83"/>
       <c r="P74" s="75"/>
@@ -12424,10 +12617,10 @@
       <c r="G75" s="62"/>
       <c r="H75" s="62"/>
       <c r="I75" s="40"/>
-      <c r="J75" s="213"/>
-      <c r="K75" s="214"/>
-      <c r="L75" s="214"/>
-      <c r="M75" s="215"/>
+      <c r="J75" s="214"/>
+      <c r="K75" s="215"/>
+      <c r="L75" s="215"/>
+      <c r="M75" s="216"/>
       <c r="N75" s="83"/>
       <c r="O75" s="83"/>
       <c r="P75" s="75"/>
@@ -12446,10 +12639,10 @@
       <c r="G76" s="62"/>
       <c r="H76" s="62"/>
       <c r="I76" s="40"/>
-      <c r="J76" s="213"/>
-      <c r="K76" s="214"/>
-      <c r="L76" s="214"/>
-      <c r="M76" s="215"/>
+      <c r="J76" s="214"/>
+      <c r="K76" s="215"/>
+      <c r="L76" s="215"/>
+      <c r="M76" s="216"/>
       <c r="N76" s="83"/>
       <c r="O76" s="83"/>
       <c r="P76" s="75"/>
@@ -12468,10 +12661,10 @@
       <c r="G77" s="62"/>
       <c r="H77" s="62"/>
       <c r="I77" s="40"/>
-      <c r="J77" s="213"/>
-      <c r="K77" s="214"/>
-      <c r="L77" s="214"/>
-      <c r="M77" s="215"/>
+      <c r="J77" s="214"/>
+      <c r="K77" s="215"/>
+      <c r="L77" s="215"/>
+      <c r="M77" s="216"/>
       <c r="N77" s="83"/>
       <c r="O77" s="83"/>
       <c r="P77" s="75"/>
@@ -12490,10 +12683,10 @@
       <c r="G78" s="62"/>
       <c r="H78" s="62"/>
       <c r="I78" s="40"/>
-      <c r="J78" s="213"/>
-      <c r="K78" s="214"/>
-      <c r="L78" s="214"/>
-      <c r="M78" s="215"/>
+      <c r="J78" s="214"/>
+      <c r="K78" s="215"/>
+      <c r="L78" s="215"/>
+      <c r="M78" s="216"/>
       <c r="N78" s="83"/>
       <c r="O78" s="83"/>
       <c r="P78" s="75"/>
@@ -12512,10 +12705,10 @@
       <c r="G79" s="62"/>
       <c r="H79" s="62"/>
       <c r="I79" s="40"/>
-      <c r="J79" s="213"/>
-      <c r="K79" s="214"/>
-      <c r="L79" s="214"/>
-      <c r="M79" s="215"/>
+      <c r="J79" s="214"/>
+      <c r="K79" s="215"/>
+      <c r="L79" s="215"/>
+      <c r="M79" s="216"/>
       <c r="N79" s="83"/>
       <c r="O79" s="83"/>
       <c r="P79" s="75"/>
@@ -12534,10 +12727,10 @@
       <c r="G80" s="62"/>
       <c r="H80" s="62"/>
       <c r="I80" s="40"/>
-      <c r="J80" s="213"/>
-      <c r="K80" s="214"/>
-      <c r="L80" s="214"/>
-      <c r="M80" s="215"/>
+      <c r="J80" s="214"/>
+      <c r="K80" s="215"/>
+      <c r="L80" s="215"/>
+      <c r="M80" s="216"/>
       <c r="N80" s="83"/>
       <c r="O80" s="83"/>
       <c r="P80" s="75"/>
@@ -12556,10 +12749,10 @@
       <c r="G81" s="62"/>
       <c r="H81" s="62"/>
       <c r="I81" s="40"/>
-      <c r="J81" s="213"/>
-      <c r="K81" s="214"/>
-      <c r="L81" s="214"/>
-      <c r="M81" s="215"/>
+      <c r="J81" s="214"/>
+      <c r="K81" s="215"/>
+      <c r="L81" s="215"/>
+      <c r="M81" s="216"/>
       <c r="N81" s="83"/>
       <c r="O81" s="83"/>
       <c r="P81" s="75"/>
@@ -12578,10 +12771,10 @@
       <c r="G82" s="62"/>
       <c r="H82" s="62"/>
       <c r="I82" s="40"/>
-      <c r="J82" s="213"/>
-      <c r="K82" s="214"/>
-      <c r="L82" s="214"/>
-      <c r="M82" s="215"/>
+      <c r="J82" s="214"/>
+      <c r="K82" s="215"/>
+      <c r="L82" s="215"/>
+      <c r="M82" s="216"/>
       <c r="N82" s="83"/>
       <c r="O82" s="83"/>
       <c r="P82" s="75"/>
@@ -12600,10 +12793,10 @@
       <c r="G83" s="62"/>
       <c r="H83" s="62"/>
       <c r="I83" s="40"/>
-      <c r="J83" s="213"/>
-      <c r="K83" s="214"/>
-      <c r="L83" s="214"/>
-      <c r="M83" s="215"/>
+      <c r="J83" s="214"/>
+      <c r="K83" s="215"/>
+      <c r="L83" s="215"/>
+      <c r="M83" s="216"/>
       <c r="N83" s="83"/>
       <c r="O83" s="83"/>
       <c r="P83" s="75"/>
@@ -12622,10 +12815,10 @@
       <c r="G84" s="62"/>
       <c r="H84" s="62"/>
       <c r="I84" s="40"/>
-      <c r="J84" s="213"/>
-      <c r="K84" s="214"/>
-      <c r="L84" s="214"/>
-      <c r="M84" s="215"/>
+      <c r="J84" s="214"/>
+      <c r="K84" s="215"/>
+      <c r="L84" s="215"/>
+      <c r="M84" s="216"/>
       <c r="N84" s="83"/>
       <c r="O84" s="83"/>
       <c r="P84" s="75"/>
@@ -12644,10 +12837,10 @@
       <c r="G85" s="62"/>
       <c r="H85" s="62"/>
       <c r="I85" s="40"/>
-      <c r="J85" s="213"/>
-      <c r="K85" s="214"/>
-      <c r="L85" s="214"/>
-      <c r="M85" s="215"/>
+      <c r="J85" s="214"/>
+      <c r="K85" s="215"/>
+      <c r="L85" s="215"/>
+      <c r="M85" s="216"/>
       <c r="N85" s="83"/>
       <c r="O85" s="83"/>
       <c r="P85" s="75"/>
@@ -12666,10 +12859,10 @@
       <c r="G86" s="62"/>
       <c r="H86" s="62"/>
       <c r="I86" s="40"/>
-      <c r="J86" s="213"/>
-      <c r="K86" s="214"/>
-      <c r="L86" s="214"/>
-      <c r="M86" s="215"/>
+      <c r="J86" s="214"/>
+      <c r="K86" s="215"/>
+      <c r="L86" s="215"/>
+      <c r="M86" s="216"/>
       <c r="N86" s="83"/>
       <c r="O86" s="83"/>
       <c r="P86" s="75"/>
@@ -12688,10 +12881,10 @@
       <c r="G87" s="62"/>
       <c r="H87" s="62"/>
       <c r="I87" s="40"/>
-      <c r="J87" s="213"/>
-      <c r="K87" s="214"/>
-      <c r="L87" s="214"/>
-      <c r="M87" s="215"/>
+      <c r="J87" s="214"/>
+      <c r="K87" s="215"/>
+      <c r="L87" s="215"/>
+      <c r="M87" s="216"/>
       <c r="N87" s="83"/>
       <c r="O87" s="83"/>
       <c r="P87" s="75"/>
@@ -12710,10 +12903,10 @@
       <c r="G88" s="62"/>
       <c r="H88" s="62"/>
       <c r="I88" s="40"/>
-      <c r="J88" s="213"/>
-      <c r="K88" s="214"/>
-      <c r="L88" s="214"/>
-      <c r="M88" s="215"/>
+      <c r="J88" s="214"/>
+      <c r="K88" s="215"/>
+      <c r="L88" s="215"/>
+      <c r="M88" s="216"/>
       <c r="N88" s="83"/>
       <c r="O88" s="83"/>
       <c r="P88" s="75"/>
@@ -12732,10 +12925,10 @@
       <c r="G89" s="62"/>
       <c r="H89" s="62"/>
       <c r="I89" s="40"/>
-      <c r="J89" s="213"/>
-      <c r="K89" s="214"/>
-      <c r="L89" s="214"/>
-      <c r="M89" s="215"/>
+      <c r="J89" s="214"/>
+      <c r="K89" s="215"/>
+      <c r="L89" s="215"/>
+      <c r="M89" s="216"/>
       <c r="N89" s="83"/>
       <c r="O89" s="83"/>
       <c r="P89" s="75"/>
@@ -12754,10 +12947,10 @@
       <c r="G90" s="62"/>
       <c r="H90" s="62"/>
       <c r="I90" s="40"/>
-      <c r="J90" s="213"/>
-      <c r="K90" s="214"/>
-      <c r="L90" s="214"/>
-      <c r="M90" s="215"/>
+      <c r="J90" s="214"/>
+      <c r="K90" s="215"/>
+      <c r="L90" s="215"/>
+      <c r="M90" s="216"/>
       <c r="N90" s="83"/>
       <c r="O90" s="83"/>
       <c r="P90" s="75"/>
@@ -12776,10 +12969,10 @@
       <c r="G91" s="62"/>
       <c r="H91" s="62"/>
       <c r="I91" s="40"/>
-      <c r="J91" s="213"/>
-      <c r="K91" s="214"/>
-      <c r="L91" s="214"/>
-      <c r="M91" s="215"/>
+      <c r="J91" s="214"/>
+      <c r="K91" s="215"/>
+      <c r="L91" s="215"/>
+      <c r="M91" s="216"/>
       <c r="N91" s="83"/>
       <c r="O91" s="83"/>
       <c r="P91" s="75"/>
@@ -12798,10 +12991,10 @@
       <c r="G92" s="62"/>
       <c r="H92" s="62"/>
       <c r="I92" s="40"/>
-      <c r="J92" s="213"/>
-      <c r="K92" s="214"/>
-      <c r="L92" s="214"/>
-      <c r="M92" s="215"/>
+      <c r="J92" s="214"/>
+      <c r="K92" s="215"/>
+      <c r="L92" s="215"/>
+      <c r="M92" s="216"/>
       <c r="N92" s="83"/>
       <c r="O92" s="83"/>
       <c r="P92" s="75"/>
@@ -12820,10 +13013,10 @@
       <c r="G93" s="62"/>
       <c r="H93" s="62"/>
       <c r="I93" s="40"/>
-      <c r="J93" s="213"/>
-      <c r="K93" s="214"/>
-      <c r="L93" s="214"/>
-      <c r="M93" s="215"/>
+      <c r="J93" s="214"/>
+      <c r="K93" s="215"/>
+      <c r="L93" s="215"/>
+      <c r="M93" s="216"/>
       <c r="N93" s="83"/>
       <c r="O93" s="83"/>
       <c r="P93" s="75"/>
@@ -12842,10 +13035,10 @@
       <c r="G94" s="62"/>
       <c r="H94" s="62"/>
       <c r="I94" s="40"/>
-      <c r="J94" s="213"/>
-      <c r="K94" s="214"/>
-      <c r="L94" s="214"/>
-      <c r="M94" s="215"/>
+      <c r="J94" s="214"/>
+      <c r="K94" s="215"/>
+      <c r="L94" s="215"/>
+      <c r="M94" s="216"/>
       <c r="N94" s="83"/>
       <c r="O94" s="83"/>
       <c r="P94" s="75"/>
@@ -12980,8 +13173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12997,10 +13190,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="173"/>
+      <c r="B1" s="174"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13030,8 +13223,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="173"/>
-      <c r="B2" s="173"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="174"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13088,7 +13281,9 @@
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
+      <c r="B6" s="43" t="s">
+        <v>230</v>
+      </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
@@ -13142,7 +13337,7 @@
       <c r="A10" s="79"/>
       <c r="B10" s="43"/>
       <c r="C10" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
@@ -13169,7 +13364,9 @@
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="79"/>
       <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
+      <c r="C12" s="43" t="s">
+        <v>229</v>
+      </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
@@ -13254,7 +13451,7 @@
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="B20" s="43"/>
       <c r="C20" s="85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
@@ -13327,7 +13524,9 @@
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="72"/>
-      <c r="B26" s="43"/>
+      <c r="B26" s="85" t="s">
+        <v>213</v>
+      </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
@@ -14104,10 +14303,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="173"/>
+      <c r="B1" s="174"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14137,8 +14336,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="173"/>
-      <c r="B2" s="173"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="174"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
